--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="100" windowWidth="36500" windowHeight="17220" tabRatio="957"/>
+    <workbookView xWindow="300" yWindow="100" windowWidth="36500" windowHeight="17220" tabRatio="957" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -3101,47 +3101,52 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3174,6 +3179,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3201,6 +3216,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3213,53 +3243,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3318,8 +3318,9 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3329,31 +3330,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3370,6 +3356,20 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11669,7 +11669,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code":0001,</a:t>
+            <a:t>      "code":1,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18725,7 +18725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -18737,307 +18737,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222" t="s">
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225" t="s">
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="228" t="s">
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="230"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
+      <c r="AC1" s="263"/>
+      <c r="AD1" s="264"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="251" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="220" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="234" t="s">
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="235"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="246" t="s">
+      <c r="L2" s="237"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="256" t="s">
         <v>393</v>
       </c>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="231" t="s">
+      <c r="O2" s="257"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="233" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="231" t="s">
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="231" t="s">
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="233"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="235"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237" t="s">
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="234" t="s">
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="235"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="225" t="s">
+      <c r="L3" s="237"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="241" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="239" t="s">
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="242"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="244" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="242">
+      <c r="W3" s="245"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="247">
         <v>42009</v>
       </c>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="245">
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="250">
         <v>42068</v>
       </c>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
+      <c r="AC3" s="248"/>
+      <c r="AD3" s="249"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263" t="s">
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263" t="s">
+      <c r="G8" s="229"/>
+      <c r="H8" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263" t="s">
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263" t="s">
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="249">
+      <c r="B9" s="230">
         <v>42027</v>
       </c>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="252" t="s">
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="253"/>
-      <c r="H9" s="254" t="s">
+      <c r="G9" s="221"/>
+      <c r="H9" s="222" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="255"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="257" t="s">
+      <c r="I9" s="218"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="223" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="262"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="224"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="225"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="228"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="258"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="262"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="224"/>
+      <c r="V10" s="224"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="227"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="227"/>
+      <c r="AC10" s="228"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="258"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="262"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="224"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="224"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="227"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="228"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="264"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="258"/>
-      <c r="R12" s="258"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="258"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="262"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="224"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="224"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="228"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19072,31 +19072,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19111,11 +19091,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19216,14 +19216,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19237,14 +19237,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19279,14 +19279,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19324,11 +19324,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19392,19 +19392,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19433,11 +19433,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19466,11 +19466,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19499,9 +19499,9 @@
       <c r="I16" s="164" t="s">
         <v>305</v>
       </c>
-      <c r="J16" s="299"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19530,9 +19530,9 @@
       <c r="I17" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="J17" s="299"/>
-      <c r="K17" s="298"/>
-      <c r="L17" s="298"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19694,11 +19694,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19730,12 +19730,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19775,10 +19775,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>430</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19798,10 +19798,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19821,10 +19821,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19844,10 +19844,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19881,11 +19881,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19900,12 +19900,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="286" t="s">
+      <c r="B37" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20417,11 +20417,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="300" t="s">
+      <c r="B60" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="300"/>
-      <c r="D60" s="300"/>
+      <c r="C60" s="294"/>
+      <c r="D60" s="294"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20438,12 +20438,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="286" t="s">
+      <c r="B61" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="287"/>
-      <c r="D61" s="287"/>
-      <c r="E61" s="288"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20535,7 +20535,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="301" t="s">
+      <c r="D64" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="283"/>
@@ -20568,10 +20568,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="301" t="s">
+      <c r="D65" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="302"/>
+      <c r="E65" s="296"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20601,10 +20601,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="303" t="s">
+      <c r="D66" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="302"/>
+      <c r="E66" s="296"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21056,12 +21056,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21078,11 +21077,12 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21188,14 +21188,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21209,14 +21209,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21251,14 +21251,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21293,14 +21293,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="301" t="s">
+      <c r="C9" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21364,19 +21364,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21405,11 +21405,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21438,11 +21438,11 @@
       <c r="I15" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>454</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21604,11 +21604,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21623,12 +21623,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21668,10 +21668,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21705,11 +21705,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="291" t="s">
+      <c r="B30" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21724,12 +21724,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21953,10 +21953,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="284" t="s">
+      <c r="D38" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="285"/>
+      <c r="E38" s="300"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22578,12 +22578,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22596,6 +22590,12 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22701,14 +22701,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22722,14 +22722,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22767,11 +22767,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22809,11 +22809,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22877,19 +22877,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22918,11 +22918,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22951,11 +22951,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22984,11 +22984,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23049,7 +23049,7 @@
         <v>329</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23080,7 +23080,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23243,11 +23243,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23279,12 +23279,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23324,10 +23324,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>436</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23347,10 +23347,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23370,10 +23370,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23393,10 +23393,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23430,11 +23430,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23449,12 +23449,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23645,7 +23645,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -23678,7 +23678,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="283"/>
@@ -23711,7 +23711,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E47" s="283"/>
@@ -24141,11 +24141,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24162,12 +24162,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24259,7 +24259,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -24292,10 +24292,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24325,10 +24325,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24780,20 +24780,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24810,6 +24796,20 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24915,14 +24915,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24936,14 +24936,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -24978,14 +24978,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25023,11 +25023,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25091,19 +25091,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25132,11 +25132,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25165,11 +25165,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25198,11 +25198,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25290,7 +25290,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25321,7 +25321,7 @@
         <v>329</v>
       </c>
       <c r="J20" s="282"/>
-      <c r="K20" s="289"/>
+      <c r="K20" s="292"/>
       <c r="L20" s="283"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25484,11 +25484,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="290" t="s">
+      <c r="B30" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25520,12 +25520,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="294" t="s">
+      <c r="B32" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="294"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25565,10 +25565,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>437</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25588,10 +25588,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25611,10 +25611,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25634,10 +25634,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="292" t="s">
+      <c r="C37" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="293"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25657,10 +25657,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="292" t="s">
+      <c r="C38" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D38" s="293"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25694,11 +25694,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -25713,12 +25713,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -25909,7 +25909,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -25942,7 +25942,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E48" s="283"/>
@@ -25975,7 +25975,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="95"/>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E49" s="283"/>
@@ -26467,11 +26467,11 @@
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="300" t="s">
+      <c r="B73" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="300"/>
-      <c r="D73" s="300"/>
+      <c r="C73" s="294"/>
+      <c r="D73" s="294"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -26488,12 +26488,12 @@
     </row>
     <row r="74" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="88"/>
-      <c r="B74" s="286" t="s">
+      <c r="B74" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="287"/>
-      <c r="D74" s="287"/>
-      <c r="E74" s="288"/>
+      <c r="C74" s="288"/>
+      <c r="D74" s="288"/>
+      <c r="E74" s="289"/>
       <c r="F74" s="144" t="s">
         <v>115</v>
       </c>
@@ -26585,7 +26585,7 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="301" t="s">
+      <c r="D77" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="283"/>
@@ -26618,10 +26618,10 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="301" t="s">
+      <c r="D78" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="302"/>
+      <c r="E78" s="296"/>
       <c r="F78" s="135" t="s">
         <v>205</v>
       </c>
@@ -26651,10 +26651,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="302"/>
+      <c r="E79" s="296"/>
       <c r="F79" s="135" t="s">
         <v>208</v>
       </c>
@@ -27106,16 +27106,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27132,11 +27127,16 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27242,14 +27242,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27263,14 +27263,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27305,14 +27305,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27350,11 +27350,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27418,19 +27418,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27459,11 +27459,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27492,11 +27492,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27525,11 +27525,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27718,11 +27718,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27754,12 +27754,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27799,10 +27799,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>437</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27822,10 +27822,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27845,10 +27845,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27868,10 +27868,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27905,11 +27905,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -27924,12 +27924,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="286" t="s">
+      <c r="B37" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -28426,11 +28426,11 @@
     </row>
     <row r="61" spans="1:15" ht="20" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="300"/>
-      <c r="D61" s="300"/>
+      <c r="C61" s="294"/>
+      <c r="D61" s="294"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -28447,12 +28447,12 @@
     </row>
     <row r="62" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="88"/>
-      <c r="B62" s="286" t="s">
+      <c r="B62" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="287"/>
-      <c r="D62" s="287"/>
-      <c r="E62" s="288"/>
+      <c r="C62" s="288"/>
+      <c r="D62" s="288"/>
+      <c r="E62" s="289"/>
       <c r="F62" s="144" t="s">
         <v>115</v>
       </c>
@@ -28544,7 +28544,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="301" t="s">
+      <c r="D65" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="283"/>
@@ -28577,10 +28577,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="301" t="s">
+      <c r="D66" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="302"/>
+      <c r="E66" s="296"/>
       <c r="F66" s="135" t="s">
         <v>205</v>
       </c>
@@ -28610,10 +28610,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="302"/>
+      <c r="E67" s="296"/>
       <c r="F67" s="135" t="s">
         <v>208</v>
       </c>
@@ -29065,12 +29065,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -29085,11 +29084,12 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29195,14 +29195,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29216,14 +29216,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29258,14 +29258,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29303,11 +29303,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29371,19 +29371,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29412,11 +29412,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29445,11 +29445,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29478,11 +29478,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29539,7 +29539,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29702,11 +29702,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29738,12 +29738,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29783,10 +29783,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>438</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29806,10 +29806,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29829,10 +29829,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29852,10 +29852,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29875,10 +29875,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29912,11 +29912,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -29931,12 +29931,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -30127,7 +30127,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E45" s="283"/>
@@ -30160,7 +30160,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="95"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E46" s="283"/>
@@ -30652,11 +30652,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="300" t="s">
+      <c r="B70" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
+      <c r="C70" s="294"/>
+      <c r="D70" s="294"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30673,12 +30673,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="286" t="s">
+      <c r="B71" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="287"/>
-      <c r="D71" s="287"/>
-      <c r="E71" s="288"/>
+      <c r="C71" s="288"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -30770,7 +30770,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -30803,10 +30803,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -30836,10 +30836,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -31291,14 +31291,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B70:D70"/>
@@ -31315,11 +31312,14 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31428,14 +31428,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31449,14 +31449,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31491,14 +31491,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31536,11 +31536,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31604,19 +31604,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31645,11 +31645,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31678,11 +31678,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31844,11 +31844,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31880,12 +31880,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -31925,10 +31925,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -31948,10 +31948,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -31971,10 +31971,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32008,11 +32008,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32027,12 +32027,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32223,7 +32223,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -32256,7 +32256,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -32289,7 +32289,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E42" s="283"/>
@@ -32829,11 +32829,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="300" t="s">
+      <c r="B68" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="300"/>
-      <c r="D68" s="300"/>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32850,12 +32850,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="286" t="s">
+      <c r="B69" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="287"/>
-      <c r="D69" s="287"/>
-      <c r="E69" s="288"/>
+      <c r="C69" s="288"/>
+      <c r="D69" s="288"/>
+      <c r="E69" s="289"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -32947,7 +32947,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="301" t="s">
+      <c r="D72" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="283"/>
@@ -32980,10 +32980,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="302"/>
+      <c r="E73" s="296"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33013,10 +33013,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="303" t="s">
+      <c r="D74" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33485,6 +33485,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33501,16 +33511,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33617,14 +33617,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33638,14 +33638,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33680,14 +33680,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33725,11 +33725,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33793,19 +33793,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33834,11 +33834,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34000,11 +34000,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34036,12 +34036,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34081,10 +34081,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>440</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34104,10 +34104,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34141,11 +34141,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34160,12 +34160,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="286" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34356,7 +34356,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="301" t="s">
+      <c r="D38" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -34389,7 +34389,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E39" s="283"/>
@@ -34422,7 +34422,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="283"/>
@@ -35039,6 +35039,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35051,12 +35057,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35162,14 +35162,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35183,14 +35183,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35225,14 +35225,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35270,11 +35270,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35338,19 +35338,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35379,11 +35379,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35545,11 +35545,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35581,12 +35581,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35626,10 +35626,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>442</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35649,10 +35649,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35686,11 +35686,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35705,12 +35705,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="286" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -35901,7 +35901,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="301" t="s">
+      <c r="D38" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -35934,7 +35934,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E39" s="283"/>
@@ -35967,7 +35967,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="283"/>
@@ -36584,6 +36584,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36596,12 +36602,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36707,14 +36707,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36728,14 +36728,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36770,14 +36770,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36815,11 +36815,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36883,19 +36883,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36924,11 +36924,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36957,11 +36957,11 @@
       <c r="I15" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>455</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37123,11 +37123,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37159,12 +37159,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37204,10 +37204,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37227,10 +37227,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37264,11 +37264,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37283,12 +37283,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37479,7 +37479,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -37512,7 +37512,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="283"/>
@@ -37545,7 +37545,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="283"/>
@@ -38162,6 +38162,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38175,12 +38181,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38884,14 +38884,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -38905,14 +38905,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -38947,14 +38947,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -38992,11 +38992,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39060,19 +39060,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39101,11 +39101,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39134,11 +39134,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>370</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39300,11 +39300,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39336,12 +39336,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39381,10 +39381,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>442</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39404,10 +39404,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39441,11 +39441,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39460,12 +39460,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39656,7 +39656,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -39689,7 +39689,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="283"/>
@@ -39722,7 +39722,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="283"/>
@@ -40339,13 +40339,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40358,6 +40351,13 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40463,14 +40463,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40484,14 +40484,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40529,11 +40529,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40571,11 +40571,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40639,19 +40639,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40680,11 +40680,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40713,9 +40713,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299"/>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="J15" s="291"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40744,11 +40744,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40842,7 +40842,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41005,11 +41005,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41041,12 +41041,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41086,10 +41086,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41109,10 +41109,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41132,10 +41132,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41155,10 +41155,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41178,10 +41178,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="292" t="s">
+      <c r="C37" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="293"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41201,10 +41201,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="292" t="s">
+      <c r="C38" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D38" s="293"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41238,11 +41238,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41257,12 +41257,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41453,7 +41453,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -41486,7 +41486,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E48" s="283"/>
@@ -41519,7 +41519,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="295" t="s">
         <v>397</v>
       </c>
       <c r="E49" s="283"/>
@@ -41552,7 +41552,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="301" t="s">
+      <c r="D50" s="295" t="s">
         <v>362</v>
       </c>
       <c r="E50" s="283"/>
@@ -41953,11 +41953,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="300" t="s">
+      <c r="B71" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="300"/>
-      <c r="D71" s="300"/>
+      <c r="C71" s="294"/>
+      <c r="D71" s="294"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -41974,12 +41974,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="286" t="s">
+      <c r="B72" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="287"/>
-      <c r="D72" s="287"/>
-      <c r="E72" s="288"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42071,7 +42071,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="283"/>
@@ -42104,10 +42104,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="301" t="s">
+      <c r="D76" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42137,10 +42137,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="303" t="s">
+      <c r="D77" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="302"/>
+      <c r="E77" s="296"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42592,6 +42592,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42608,22 +42624,6 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42729,14 +42729,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42750,14 +42750,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42792,14 +42792,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42837,11 +42837,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -42905,19 +42905,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42946,11 +42946,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42979,11 +42979,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43012,11 +43012,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43073,7 +43073,7 @@
         <v>329</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43236,11 +43236,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43272,12 +43272,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43317,10 +43317,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43340,10 +43340,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>368</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43363,10 +43363,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43386,10 +43386,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43409,10 +43409,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43446,11 +43446,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -43465,12 +43465,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -43661,7 +43661,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -43694,7 +43694,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="283"/>
@@ -43727,7 +43727,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>397</v>
       </c>
       <c r="E47" s="283"/>
@@ -43760,7 +43760,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>362</v>
       </c>
       <c r="E48" s="283"/>
@@ -44192,11 +44192,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="300" t="s">
+      <c r="B70" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
+      <c r="C70" s="294"/>
+      <c r="D70" s="294"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -44213,12 +44213,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="286" t="s">
+      <c r="B71" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="287"/>
-      <c r="D71" s="287"/>
-      <c r="E71" s="288"/>
+      <c r="C71" s="288"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -44310,7 +44310,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -44343,10 +44343,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -44376,10 +44376,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -44831,6 +44831,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -44847,21 +44862,6 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44967,14 +44967,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -44988,14 +44988,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45030,14 +45030,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45075,11 +45075,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45143,19 +45143,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45184,11 +45184,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45217,11 +45217,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45250,11 +45250,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45443,11 +45443,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45479,12 +45479,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45524,10 +45524,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>447</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45547,10 +45547,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>368</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45570,10 +45570,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45593,10 +45593,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45616,10 +45616,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45653,11 +45653,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="291"/>
-      <c r="D37" s="291"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -45672,12 +45672,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="287"/>
-      <c r="E38" s="288"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="158" t="s">
         <v>115</v>
       </c>
@@ -46174,11 +46174,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="300" t="s">
+      <c r="B62" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="300"/>
-      <c r="D62" s="300"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="294"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -46195,12 +46195,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="286" t="s">
+      <c r="B63" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="287"/>
-      <c r="D63" s="287"/>
-      <c r="E63" s="288"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="288"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="158" t="s">
         <v>115</v>
       </c>
@@ -46292,7 +46292,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="301" t="s">
+      <c r="D66" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="283"/>
@@ -46325,10 +46325,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="301" t="s">
+      <c r="D67" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="302"/>
+      <c r="E67" s="296"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -46358,10 +46358,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="302"/>
+      <c r="E68" s="296"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -46813,20 +46813,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46839,6 +46825,20 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46944,14 +46944,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -46965,14 +46965,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47007,14 +47007,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47052,11 +47052,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47120,19 +47120,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47161,11 +47161,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47194,11 +47194,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47360,11 +47360,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47396,12 +47396,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47441,10 +47441,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>448</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47464,10 +47464,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47487,10 +47487,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47524,11 +47524,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47543,12 +47543,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47739,7 +47739,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -47772,7 +47772,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -47805,7 +47805,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>397</v>
       </c>
       <c r="E42" s="283"/>
@@ -48457,6 +48457,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48471,12 +48477,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48582,14 +48582,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48603,14 +48603,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48645,14 +48645,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48690,11 +48690,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48758,19 +48758,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48799,11 +48799,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48832,11 +48832,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48998,11 +48998,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49034,12 +49034,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49079,10 +49079,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>448</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49102,10 +49102,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49125,10 +49125,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49162,11 +49162,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49181,12 +49181,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49377,7 +49377,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -49410,7 +49410,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -49443,7 +49443,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>397</v>
       </c>
       <c r="E42" s="283"/>
@@ -50095,6 +50095,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50109,12 +50115,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50220,14 +50220,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50241,14 +50241,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50283,14 +50283,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50328,11 +50328,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50396,19 +50396,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50437,11 +50437,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50468,11 +50468,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50501,11 +50501,11 @@
       <c r="I16" s="170" t="s">
         <v>305</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>389</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50667,11 +50667,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50703,12 +50703,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="294"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50748,10 +50748,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50771,10 +50771,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50794,10 +50794,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50831,11 +50831,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="291" t="s">
+      <c r="B34" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="291"/>
-      <c r="D34" s="291"/>
+      <c r="C34" s="293"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50850,12 +50850,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="286" t="s">
+      <c r="B35" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="287"/>
-      <c r="D35" s="287"/>
-      <c r="E35" s="288"/>
+      <c r="C35" s="288"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="289"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51046,7 +51046,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="283"/>
@@ -51079,7 +51079,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="283"/>
@@ -51112,7 +51112,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="301" t="s">
+      <c r="D43" s="295" t="s">
         <v>278</v>
       </c>
       <c r="E43" s="283"/>
@@ -51511,11 +51511,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="300" t="s">
+      <c r="B64" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="300"/>
-      <c r="D64" s="300"/>
+      <c r="C64" s="294"/>
+      <c r="D64" s="294"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51532,12 +51532,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="286" t="s">
+      <c r="B65" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="287"/>
-      <c r="D65" s="287"/>
-      <c r="E65" s="288"/>
+      <c r="C65" s="288"/>
+      <c r="D65" s="288"/>
+      <c r="E65" s="289"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51629,7 +51629,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="301" t="s">
+      <c r="D68" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="283"/>
@@ -51662,10 +51662,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="301" t="s">
+      <c r="D69" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="302"/>
+      <c r="E69" s="296"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51695,10 +51695,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="302"/>
+      <c r="E70" s="296"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52150,18 +52150,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52177,6 +52165,18 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52282,14 +52282,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52303,14 +52303,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52345,14 +52345,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52390,11 +52390,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52458,19 +52458,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52499,11 +52499,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52530,11 +52530,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52696,11 +52696,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52732,12 +52732,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52777,10 +52777,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52800,10 +52800,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>450</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52823,10 +52823,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -52860,11 +52860,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -52879,12 +52879,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53381,11 +53381,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="300" t="s">
+      <c r="B58" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="300"/>
-      <c r="D58" s="300"/>
+      <c r="C58" s="294"/>
+      <c r="D58" s="294"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53402,12 +53402,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="286" t="s">
+      <c r="B59" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="287"/>
-      <c r="D59" s="287"/>
-      <c r="E59" s="288"/>
+      <c r="C59" s="288"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="289"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53499,7 +53499,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="301" t="s">
+      <c r="D62" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="283"/>
@@ -53532,10 +53532,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="301" t="s">
+      <c r="D63" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="302"/>
+      <c r="E63" s="296"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53565,10 +53565,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="302"/>
+      <c r="E64" s="296"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54020,13 +54020,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54037,12 +54036,13 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55059,22 +55059,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55091,6 +55075,22 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -56072,7 +56072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
@@ -56160,11 +56160,11 @@
       <c r="C4" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56181,11 +56181,11 @@
       <c r="C5" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56223,11 +56223,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56265,11 +56265,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56333,19 +56333,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56374,11 +56374,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56407,11 +56407,11 @@
       <c r="I15" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56440,11 +56440,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>263</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56509,7 +56509,7 @@
       <c r="J18" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56542,7 +56542,7 @@
       <c r="J19" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56705,11 +56705,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56741,12 +56741,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56786,10 +56786,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56809,10 +56809,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>427</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56832,10 +56832,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -56869,11 +56869,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="291"/>
-      <c r="D37" s="291"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -56888,12 +56888,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="287"/>
-      <c r="E38" s="288"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57117,10 +57117,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="284" t="s">
+      <c r="D45" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="285"/>
+      <c r="E45" s="300"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57621,11 +57621,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57642,12 +57642,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57739,7 +57739,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -57772,10 +57772,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57805,10 +57805,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58260,6 +58260,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58276,20 +58290,6 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58396,14 +58396,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58417,14 +58417,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58459,14 +58459,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58504,11 +58504,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58572,19 +58572,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58613,11 +58613,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58715,7 +58715,7 @@
       <c r="J17" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="289"/>
+      <c r="K17" s="292"/>
       <c r="L17" s="283"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58748,7 +58748,7 @@
       <c r="J18" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -58942,11 +58942,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -58978,12 +58978,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59023,10 +59023,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>430</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59046,10 +59046,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59069,10 +59069,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59092,10 +59092,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59148,12 +59148,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59377,10 +59377,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="284" t="s">
+      <c r="D46" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="285"/>
+      <c r="E46" s="300"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -59848,11 +59848,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -59869,12 +59869,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -59966,7 +59966,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -59999,10 +59999,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60032,10 +60032,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60487,12 +60487,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B38:D38"/>
@@ -60504,17 +60509,12 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60620,14 +60620,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60641,14 +60641,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60683,14 +60683,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60725,14 +60725,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="301" t="s">
+      <c r="C9" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60796,19 +60796,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60837,11 +60837,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -60870,11 +60870,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>288</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61036,11 +61036,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61072,12 +61072,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61117,10 +61117,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>433</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61140,10 +61140,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61177,11 +61177,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61196,12 +61196,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61425,10 +61425,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="284" t="s">
+      <c r="D40" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="285"/>
+      <c r="E40" s="300"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -61894,11 +61894,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="300" t="s">
+      <c r="B63" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="300"/>
-      <c r="D63" s="300"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="294"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -61915,12 +61915,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="286" t="s">
+      <c r="B64" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="287"/>
-      <c r="D64" s="287"/>
-      <c r="E64" s="288"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="288"/>
+      <c r="E64" s="289"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62012,7 +62012,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="301" t="s">
+      <c r="D67" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="283"/>
@@ -62045,10 +62045,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="301" t="s">
+      <c r="D68" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="302"/>
+      <c r="E68" s="296"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62078,10 +62078,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="303" t="s">
+      <c r="D69" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="302"/>
+      <c r="E69" s="296"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62533,6 +62533,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62547,17 +62558,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="100" windowWidth="36500" windowHeight="17220" tabRatio="957" activeTab="6"/>
+    <workbookView xWindow="300" yWindow="40" windowWidth="36500" windowHeight="17220" tabRatio="957" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -3101,52 +3101,47 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3179,16 +3174,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3216,21 +3201,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3243,23 +3213,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3318,9 +3318,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3330,16 +3329,31 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3356,20 +3370,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11723,14 +11723,12 @@
             </a:rPr>
             <a:t>"Password is required"</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -15315,7 +15313,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "message": "Get user info success!"</a:t>
+            <a:t>      "message": "Change password success!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15487,7 +15485,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 200 OK</a:t>
+            <a:t>HTTP/1.1 400 Bad Request</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18737,307 +18735,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="259" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="260"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="241" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="242"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="262" t="s">
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="263"/>
-      <c r="AA1" s="263"/>
-      <c r="AB1" s="263"/>
-      <c r="AC1" s="263"/>
-      <c r="AD1" s="264"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="230"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="236" t="s">
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="237"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="256" t="s">
+      <c r="L2" s="235"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="246" t="s">
         <v>393</v>
       </c>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="233" t="s">
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="233" t="s">
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="233" t="s">
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="235"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="233"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="236" t="s">
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="237"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="241" t="s">
+      <c r="L3" s="235"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="244" t="s">
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="239" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="247">
+      <c r="W3" s="240"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="242">
         <v>42009</v>
       </c>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="250">
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="245">
         <v>42068</v>
       </c>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="249"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229" t="s">
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229" t="s">
+      <c r="G8" s="263"/>
+      <c r="H8" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229" t="s">
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229" t="s">
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="230">
+      <c r="B9" s="249">
         <v>42027</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="220" t="s">
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="252" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222" t="s">
+      <c r="G9" s="253"/>
+      <c r="H9" s="254" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="218"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="223" t="s">
+      <c r="I9" s="255"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="257" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="228"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="258"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="262"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="222"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="228"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="258"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="262"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="222"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="228"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="260"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="262"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="228"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19072,11 +19070,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19091,31 +19109,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19132,7 +19130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -19216,14 +19214,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19237,14 +19235,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19279,14 +19277,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19324,11 +19322,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19392,19 +19390,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19433,11 +19431,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19466,11 +19464,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19499,9 +19497,9 @@
       <c r="I16" s="164" t="s">
         <v>305</v>
       </c>
-      <c r="J16" s="291"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19530,9 +19528,9 @@
       <c r="I17" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="J17" s="291"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="298"/>
+      <c r="L17" s="298"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19694,11 +19692,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19730,12 +19728,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19775,10 +19773,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>430</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19798,10 +19796,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19821,10 +19819,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19844,10 +19842,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19881,11 +19879,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19900,12 +19898,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20417,11 +20415,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="294" t="s">
+      <c r="B60" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="294"/>
-      <c r="D60" s="294"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="300"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20438,12 +20436,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="287" t="s">
+      <c r="B61" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="288"/>
-      <c r="D61" s="288"/>
-      <c r="E61" s="289"/>
+      <c r="C61" s="287"/>
+      <c r="D61" s="287"/>
+      <c r="E61" s="288"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20535,7 +20533,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="295" t="s">
+      <c r="D64" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="283"/>
@@ -20568,10 +20566,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="296"/>
+      <c r="E65" s="302"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20601,10 +20599,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="297" t="s">
+      <c r="D66" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21056,11 +21054,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21077,12 +21076,11 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21103,7 +21101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
@@ -21188,14 +21186,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21209,14 +21207,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21251,14 +21249,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21293,14 +21291,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21364,19 +21362,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21405,11 +21403,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21438,11 +21436,11 @@
       <c r="I15" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>454</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21604,11 +21602,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21623,12 +21621,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21668,10 +21666,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21705,11 +21703,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="293" t="s">
+      <c r="B30" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21724,12 +21722,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="287" t="s">
+      <c r="B31" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="288"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="288"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21953,10 +21951,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="299" t="s">
+      <c r="D38" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="300"/>
+      <c r="E38" s="285"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22578,6 +22576,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22590,12 +22594,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22616,7 +22614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
@@ -22701,14 +22699,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22722,14 +22720,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22767,11 +22765,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22809,11 +22807,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22877,19 +22875,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22918,11 +22916,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22951,11 +22949,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22984,11 +22982,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23049,7 +23047,7 @@
         <v>329</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23080,7 +23078,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23243,11 +23241,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23279,12 +23277,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23324,10 +23322,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23347,10 +23345,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23370,10 +23368,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23393,10 +23391,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23430,11 +23428,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23449,12 +23447,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23645,7 +23643,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -23678,7 +23676,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="283"/>
@@ -23711,7 +23709,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E47" s="283"/>
@@ -24141,11 +24139,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24162,12 +24160,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24259,7 +24257,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -24292,10 +24290,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24325,10 +24323,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24780,6 +24778,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24796,20 +24808,6 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24915,14 +24913,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24936,14 +24934,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -24978,14 +24976,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25023,11 +25021,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25091,19 +25089,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25132,11 +25130,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25165,11 +25163,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25198,11 +25196,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25290,7 +25288,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25321,7 +25319,7 @@
         <v>329</v>
       </c>
       <c r="J20" s="282"/>
-      <c r="K20" s="292"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="283"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25484,11 +25482,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25520,12 +25518,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="304" t="s">
+      <c r="B32" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C32" s="304"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="304"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25565,10 +25563,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25588,10 +25586,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25611,10 +25609,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25634,10 +25632,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25657,10 +25655,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25694,11 +25692,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -25713,12 +25711,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -25909,7 +25907,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -25942,7 +25940,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E48" s="283"/>
@@ -25975,7 +25973,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="95"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E49" s="283"/>
@@ -26467,11 +26465,11 @@
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="294" t="s">
+      <c r="B73" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="294"/>
-      <c r="D73" s="294"/>
+      <c r="C73" s="300"/>
+      <c r="D73" s="300"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -26488,12 +26486,12 @@
     </row>
     <row r="74" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="88"/>
-      <c r="B74" s="287" t="s">
+      <c r="B74" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="288"/>
-      <c r="D74" s="288"/>
-      <c r="E74" s="289"/>
+      <c r="C74" s="287"/>
+      <c r="D74" s="287"/>
+      <c r="E74" s="288"/>
       <c r="F74" s="144" t="s">
         <v>115</v>
       </c>
@@ -26585,7 +26583,7 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="295" t="s">
+      <c r="D77" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="283"/>
@@ -26618,10 +26616,10 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="295" t="s">
+      <c r="D78" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="296"/>
+      <c r="E78" s="302"/>
       <c r="F78" s="135" t="s">
         <v>205</v>
       </c>
@@ -26651,10 +26649,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="297" t="s">
+      <c r="D79" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="296"/>
+      <c r="E79" s="302"/>
       <c r="F79" s="135" t="s">
         <v>208</v>
       </c>
@@ -27106,11 +27104,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27127,16 +27130,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27242,14 +27240,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27263,14 +27261,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27305,14 +27303,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27350,11 +27348,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27418,19 +27416,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27459,11 +27457,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27492,11 +27490,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27525,11 +27523,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27718,11 +27716,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27754,12 +27752,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27799,10 +27797,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27822,10 +27820,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27845,10 +27843,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27868,10 +27866,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27905,11 +27903,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -27924,12 +27922,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -28426,11 +28424,11 @@
     </row>
     <row r="61" spans="1:15" ht="20" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="294" t="s">
+      <c r="B61" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="294"/>
-      <c r="D61" s="294"/>
+      <c r="C61" s="300"/>
+      <c r="D61" s="300"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -28447,12 +28445,12 @@
     </row>
     <row r="62" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="88"/>
-      <c r="B62" s="287" t="s">
+      <c r="B62" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="288"/>
-      <c r="D62" s="288"/>
-      <c r="E62" s="289"/>
+      <c r="C62" s="287"/>
+      <c r="D62" s="287"/>
+      <c r="E62" s="288"/>
       <c r="F62" s="144" t="s">
         <v>115</v>
       </c>
@@ -28544,7 +28542,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="283"/>
@@ -28577,10 +28575,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>205</v>
       </c>
@@ -28610,10 +28608,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="297" t="s">
+      <c r="D67" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>208</v>
       </c>
@@ -29065,11 +29063,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -29084,12 +29083,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29195,14 +29193,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29216,14 +29214,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29258,14 +29256,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29303,11 +29301,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29371,19 +29369,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29412,11 +29410,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29445,11 +29443,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29478,11 +29476,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29539,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29702,11 +29700,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29738,12 +29736,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29783,10 +29781,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29806,10 +29804,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29829,10 +29827,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29852,10 +29850,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29875,10 +29873,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29912,11 +29910,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -29931,12 +29929,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -30127,7 +30125,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E45" s="283"/>
@@ -30160,7 +30158,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="95"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E46" s="283"/>
@@ -30652,11 +30650,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30673,12 +30671,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -30770,7 +30768,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -30803,10 +30801,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -30836,10 +30834,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -31291,11 +31289,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B70:D70"/>
@@ -31312,14 +31313,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31428,14 +31426,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31449,14 +31447,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31491,14 +31489,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31536,11 +31534,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31604,19 +31602,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31645,11 +31643,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31678,11 +31676,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31844,11 +31842,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31880,12 +31878,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -31925,10 +31923,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -31948,10 +31946,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -31971,10 +31969,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32008,11 +32006,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32027,12 +32025,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32223,7 +32221,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -32256,7 +32254,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -32289,7 +32287,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E42" s="283"/>
@@ -32829,11 +32827,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
+      <c r="C68" s="300"/>
+      <c r="D68" s="300"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32850,12 +32848,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="287" t="s">
+      <c r="B69" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="288"/>
-      <c r="D69" s="288"/>
-      <c r="E69" s="289"/>
+      <c r="C69" s="287"/>
+      <c r="D69" s="287"/>
+      <c r="E69" s="288"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -32947,7 +32945,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="295" t="s">
+      <c r="D72" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="283"/>
@@ -32980,10 +32978,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="296"/>
+      <c r="E73" s="302"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33013,10 +33011,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="297" t="s">
+      <c r="D74" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33485,16 +33483,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33511,6 +33499,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33617,14 +33615,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33638,14 +33636,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33680,14 +33678,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33725,11 +33723,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33793,19 +33791,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33834,11 +33832,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34000,11 +33998,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34036,12 +34034,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34081,10 +34079,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>440</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34104,10 +34102,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34141,11 +34139,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34160,12 +34158,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34356,7 +34354,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -34389,7 +34387,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E39" s="283"/>
@@ -34422,7 +34420,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="283"/>
@@ -35039,12 +35037,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35057,6 +35049,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35162,14 +35160,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35183,14 +35181,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35225,14 +35223,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35270,11 +35268,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35338,19 +35336,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35379,11 +35377,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35545,11 +35543,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35581,12 +35579,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35626,10 +35624,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>442</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35649,10 +35647,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35686,11 +35684,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35705,12 +35703,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -35901,7 +35899,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -35934,7 +35932,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E39" s="283"/>
@@ -35967,7 +35965,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="283"/>
@@ -36584,12 +36582,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36602,6 +36594,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36707,14 +36705,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36728,14 +36726,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36770,14 +36768,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36815,11 +36813,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36883,19 +36881,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36924,11 +36922,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36957,11 +36955,11 @@
       <c r="I15" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>455</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37123,11 +37121,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37159,12 +37157,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37204,10 +37202,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37227,10 +37225,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37264,11 +37262,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37283,12 +37281,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37479,7 +37477,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -37512,7 +37510,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="283"/>
@@ -37545,7 +37543,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="283"/>
@@ -38162,12 +38160,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38181,6 +38173,12 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38884,14 +38882,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -38905,14 +38903,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -38947,14 +38945,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -38992,11 +38990,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39060,19 +39058,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39101,11 +39099,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39134,11 +39132,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>370</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39300,11 +39298,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39336,12 +39334,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39381,10 +39379,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>442</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39404,10 +39402,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39441,11 +39439,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39460,12 +39458,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39656,7 +39654,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -39689,7 +39687,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="283"/>
@@ -39722,7 +39720,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="283"/>
@@ -40339,6 +40337,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40351,13 +40356,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40463,14 +40461,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40484,14 +40482,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40529,11 +40527,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40571,11 +40569,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40639,19 +40637,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40680,11 +40678,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40713,9 +40711,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40744,11 +40742,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40842,7 +40840,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41005,11 +41003,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41041,12 +41039,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41086,10 +41084,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41109,10 +41107,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41132,10 +41130,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41155,10 +41153,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41178,10 +41176,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41201,10 +41199,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41238,11 +41236,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41257,12 +41255,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41453,7 +41451,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -41486,7 +41484,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E48" s="283"/>
@@ -41519,7 +41517,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>397</v>
       </c>
       <c r="E49" s="283"/>
@@ -41552,7 +41550,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="295" t="s">
+      <c r="D50" s="301" t="s">
         <v>362</v>
       </c>
       <c r="E50" s="283"/>
@@ -41953,11 +41951,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="294" t="s">
+      <c r="B71" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="294"/>
-      <c r="D71" s="294"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="300"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -41974,12 +41972,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="287" t="s">
+      <c r="B72" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="288"/>
-      <c r="D72" s="288"/>
-      <c r="E72" s="289"/>
+      <c r="C72" s="287"/>
+      <c r="D72" s="287"/>
+      <c r="E72" s="288"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42071,7 +42069,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="283"/>
@@ -42104,10 +42102,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="295" t="s">
+      <c r="D76" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42137,10 +42135,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="297" t="s">
+      <c r="D77" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="296"/>
+      <c r="E77" s="302"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42592,22 +42590,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42624,6 +42606,22 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42729,14 +42727,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42750,14 +42748,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42792,14 +42790,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42837,11 +42835,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -42905,19 +42903,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42946,11 +42944,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42979,11 +42977,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43012,11 +43010,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43073,7 +43071,7 @@
         <v>329</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43236,11 +43234,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43272,12 +43270,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43317,10 +43315,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43340,10 +43338,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>368</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43363,10 +43361,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43386,10 +43384,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43409,10 +43407,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43446,11 +43444,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -43465,12 +43463,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -43661,7 +43659,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -43694,7 +43692,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="283"/>
@@ -43727,7 +43725,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>397</v>
       </c>
       <c r="E47" s="283"/>
@@ -43760,7 +43758,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>362</v>
       </c>
       <c r="E48" s="283"/>
@@ -44192,11 +44190,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -44213,12 +44211,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -44310,7 +44308,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -44343,10 +44341,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -44376,10 +44374,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -44831,21 +44829,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -44862,6 +44845,21 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44967,14 +44965,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -44988,14 +44986,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45030,14 +45028,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45075,11 +45073,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45143,19 +45141,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45184,11 +45182,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45217,11 +45215,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45250,11 +45248,11 @@
       <c r="I16" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45443,11 +45441,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45479,12 +45477,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45524,10 +45522,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45547,10 +45545,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>368</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45570,10 +45568,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45593,10 +45591,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45616,10 +45614,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45653,11 +45651,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -45672,12 +45670,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="158" t="s">
         <v>115</v>
       </c>
@@ -46174,11 +46172,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="294" t="s">
+      <c r="B62" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="294"/>
-      <c r="D62" s="294"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="300"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -46195,12 +46193,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="287" t="s">
+      <c r="B63" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="288"/>
-      <c r="E63" s="289"/>
+      <c r="C63" s="287"/>
+      <c r="D63" s="287"/>
+      <c r="E63" s="288"/>
       <c r="F63" s="158" t="s">
         <v>115</v>
       </c>
@@ -46292,7 +46290,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="283"/>
@@ -46325,10 +46323,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -46358,10 +46356,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="297" t="s">
+      <c r="D68" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -46813,6 +46811,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46825,20 +46837,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46944,14 +46942,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -46965,14 +46963,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47007,14 +47005,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47052,11 +47050,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47120,19 +47118,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47161,11 +47159,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47194,11 +47192,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47360,11 +47358,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47396,12 +47394,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47441,10 +47439,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>448</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47464,10 +47462,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47487,10 +47485,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47524,11 +47522,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47543,12 +47541,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47739,7 +47737,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -47772,7 +47770,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -47805,7 +47803,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>397</v>
       </c>
       <c r="E42" s="283"/>
@@ -48457,12 +48455,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48477,6 +48469,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48582,14 +48580,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48603,14 +48601,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48645,14 +48643,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48690,11 +48688,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48758,19 +48756,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48799,11 +48797,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48832,11 +48830,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48998,11 +48996,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49034,12 +49032,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49079,10 +49077,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>448</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49102,10 +49100,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49125,10 +49123,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49162,11 +49160,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49181,12 +49179,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49377,7 +49375,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -49410,7 +49408,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="283"/>
@@ -49443,7 +49441,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>397</v>
       </c>
       <c r="E42" s="283"/>
@@ -50095,12 +50093,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50115,6 +50107,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50220,14 +50218,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50241,14 +50239,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50283,14 +50281,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50328,11 +50326,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50396,19 +50394,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50437,11 +50435,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50468,11 +50466,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>388</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50501,11 +50499,11 @@
       <c r="I16" s="170" t="s">
         <v>305</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>389</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50667,11 +50665,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50703,12 +50701,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50748,10 +50746,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50771,10 +50769,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50794,10 +50792,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50831,11 +50829,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="293"/>
-      <c r="D34" s="293"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="291"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50850,12 +50848,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="288"/>
-      <c r="D35" s="288"/>
-      <c r="E35" s="289"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="287"/>
+      <c r="E35" s="288"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51046,7 +51044,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="283"/>
@@ -51079,7 +51077,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="283"/>
@@ -51112,7 +51110,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="295" t="s">
+      <c r="D43" s="301" t="s">
         <v>278</v>
       </c>
       <c r="E43" s="283"/>
@@ -51511,11 +51509,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="294" t="s">
+      <c r="B64" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="294"/>
-      <c r="D64" s="294"/>
+      <c r="C64" s="300"/>
+      <c r="D64" s="300"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51532,12 +51530,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="287" t="s">
+      <c r="B65" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="288"/>
-      <c r="D65" s="288"/>
-      <c r="E65" s="289"/>
+      <c r="C65" s="287"/>
+      <c r="D65" s="287"/>
+      <c r="E65" s="288"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51629,7 +51627,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="283"/>
@@ -51662,10 +51660,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="295" t="s">
+      <c r="D69" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51695,10 +51693,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="297" t="s">
+      <c r="D70" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="296"/>
+      <c r="E70" s="302"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52150,6 +52148,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52165,18 +52175,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52282,14 +52280,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52303,14 +52301,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52345,14 +52343,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52390,11 +52388,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52458,19 +52456,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52499,11 +52497,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52530,11 +52528,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52696,11 +52694,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52732,12 +52730,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52777,10 +52775,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52800,10 +52798,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>450</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52823,10 +52821,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -52860,11 +52858,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -52879,12 +52877,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53381,11 +53379,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="294" t="s">
+      <c r="B58" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="294"/>
-      <c r="D58" s="294"/>
+      <c r="C58" s="300"/>
+      <c r="D58" s="300"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53402,12 +53400,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="287" t="s">
+      <c r="B59" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="288"/>
-      <c r="E59" s="289"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="287"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53499,7 +53497,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="295" t="s">
+      <c r="D62" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="283"/>
@@ -53532,10 +53530,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="295" t="s">
+      <c r="D63" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="302"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53565,10 +53563,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="297" t="s">
+      <c r="D64" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="296"/>
+      <c r="E64" s="302"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54020,12 +54018,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54036,13 +54035,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55059,6 +55057,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55075,22 +55089,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55108,7 +55106,7 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -55406,7 +55404,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -56072,7 +56070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
@@ -56160,11 +56158,11 @@
       <c r="C4" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56181,11 +56179,11 @@
       <c r="C5" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56223,11 +56221,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56265,11 +56263,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56333,19 +56331,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56374,11 +56372,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56407,11 +56405,11 @@
       <c r="I15" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56440,11 +56438,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>263</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56509,7 +56507,7 @@
       <c r="J18" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56542,7 +56540,7 @@
       <c r="J19" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56705,11 +56703,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56741,12 +56739,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56786,10 +56784,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56809,10 +56807,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>427</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56832,10 +56830,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -56869,11 +56867,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -56888,12 +56886,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57117,10 +57115,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="299" t="s">
+      <c r="D45" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="300"/>
+      <c r="E45" s="285"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57621,11 +57619,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57642,12 +57640,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57739,7 +57737,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -57772,10 +57770,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57805,10 +57803,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58260,20 +58258,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58290,6 +58274,20 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58311,8 +58309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -58396,14 +58394,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58417,14 +58415,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58459,14 +58457,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58504,11 +58502,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58572,19 +58570,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58613,11 +58611,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58715,7 +58713,7 @@
       <c r="J17" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="292"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="283"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58748,7 +58746,7 @@
       <c r="J18" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -58942,11 +58940,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -58978,12 +58976,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59023,10 +59021,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>430</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59046,10 +59044,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59069,10 +59067,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59092,10 +59090,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59148,12 +59146,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59377,10 +59375,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="299" t="s">
+      <c r="D46" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="300"/>
+      <c r="E46" s="285"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -59848,11 +59846,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -59869,12 +59867,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -59966,7 +59964,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -59999,10 +59997,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60032,10 +60030,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60487,6 +60485,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
@@ -60498,23 +60513,6 @@
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60535,7 +60533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -60620,14 +60618,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60641,14 +60639,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60683,14 +60681,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60725,14 +60723,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60796,19 +60794,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60837,11 +60835,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -60870,11 +60868,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>288</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61036,11 +61034,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61072,12 +61070,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61117,10 +61115,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>433</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61140,10 +61138,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61177,11 +61175,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61196,12 +61194,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61425,10 +61423,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="299" t="s">
+      <c r="D40" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="300"/>
+      <c r="E40" s="285"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -61894,11 +61892,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="294" t="s">
+      <c r="B63" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="294"/>
-      <c r="D63" s="294"/>
+      <c r="C63" s="300"/>
+      <c r="D63" s="300"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -61915,12 +61913,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="287" t="s">
+      <c r="B64" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="288"/>
-      <c r="D64" s="288"/>
-      <c r="E64" s="289"/>
+      <c r="C64" s="287"/>
+      <c r="D64" s="287"/>
+      <c r="E64" s="288"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62012,7 +62010,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="283"/>
@@ -62045,10 +62043,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62078,10 +62076,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="297" t="s">
+      <c r="D69" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62533,17 +62531,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62558,6 +62545,17 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -3095,52 +3095,47 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3173,16 +3168,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3210,21 +3195,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3237,23 +3207,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3312,9 +3312,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3324,16 +3323,31 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3350,20 +3364,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -18724,7 +18724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -18736,307 +18736,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="259" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="260"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="241" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="242"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="262" t="s">
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="263"/>
-      <c r="AA1" s="263"/>
-      <c r="AB1" s="263"/>
-      <c r="AC1" s="263"/>
-      <c r="AD1" s="264"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="230"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="236" t="s">
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="237"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="256" t="s">
+      <c r="L2" s="235"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="233" t="s">
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="233" t="s">
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="233" t="s">
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="235"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="233"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="236" t="s">
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="237"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="241" t="s">
+      <c r="L3" s="235"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="244" t="s">
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="239" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="247">
+      <c r="W3" s="240"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="242">
         <v>42009</v>
       </c>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="250">
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="245">
         <v>42068</v>
       </c>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="249"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229" t="s">
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229" t="s">
+      <c r="G8" s="263"/>
+      <c r="H8" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229" t="s">
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229" t="s">
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="230">
+      <c r="B9" s="249">
         <v>42027</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="220" t="s">
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="252" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222" t="s">
+      <c r="G9" s="253"/>
+      <c r="H9" s="254" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="218"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="223" t="s">
+      <c r="I9" s="255"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="257" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="228"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="258"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="262"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="222"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="228"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="258"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="262"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="222"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="228"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="260"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="262"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="228"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19071,11 +19071,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19090,31 +19110,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19215,14 +19215,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19236,14 +19236,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19278,14 +19278,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19323,11 +19323,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19391,19 +19391,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19432,11 +19432,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19465,11 +19465,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19498,9 +19498,9 @@
       <c r="I16" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="291"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19529,9 +19529,9 @@
       <c r="I17" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="J17" s="291"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="298"/>
+      <c r="L17" s="298"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19693,11 +19693,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19729,12 +19729,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19774,10 +19774,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19797,10 +19797,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19820,10 +19820,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19843,10 +19843,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19880,11 +19880,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19899,12 +19899,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20416,11 +20416,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="294" t="s">
+      <c r="B60" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="294"/>
-      <c r="D60" s="294"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="300"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20437,12 +20437,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="287" t="s">
+      <c r="B61" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="288"/>
-      <c r="D61" s="288"/>
-      <c r="E61" s="289"/>
+      <c r="C61" s="287"/>
+      <c r="D61" s="287"/>
+      <c r="E61" s="288"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20534,7 +20534,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="295" t="s">
+      <c r="D64" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="283"/>
@@ -20567,10 +20567,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="296"/>
+      <c r="E65" s="302"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20600,10 +20600,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="297" t="s">
+      <c r="D66" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21055,11 +21055,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21076,12 +21077,11 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21187,14 +21187,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21208,14 +21208,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21250,14 +21250,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21292,14 +21292,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21363,19 +21363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21404,11 +21404,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21437,11 +21437,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>450</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21603,11 +21603,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21622,12 +21622,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21667,10 +21667,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21704,11 +21704,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="293" t="s">
+      <c r="B30" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21723,12 +21723,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="287" t="s">
+      <c r="B31" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="288"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="288"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21952,10 +21952,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="299" t="s">
+      <c r="D38" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="300"/>
+      <c r="E38" s="285"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22577,6 +22577,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22589,12 +22595,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22700,14 +22700,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22721,14 +22721,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22766,11 +22766,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22808,11 +22808,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22876,19 +22876,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22917,11 +22917,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22950,11 +22950,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22983,11 +22983,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23048,7 +23048,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23079,7 +23079,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23242,11 +23242,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23278,12 +23278,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23323,10 +23323,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23346,10 +23346,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23369,10 +23369,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23392,10 +23392,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23429,11 +23429,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23448,12 +23448,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23644,7 +23644,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -23677,7 +23677,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -23710,7 +23710,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E47" s="283"/>
@@ -24140,11 +24140,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24161,12 +24161,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -24291,10 +24291,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24324,10 +24324,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24779,6 +24779,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24795,20 +24809,6 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24914,14 +24914,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24935,14 +24935,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -24977,14 +24977,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25022,11 +25022,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25090,19 +25090,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25131,11 +25131,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25164,11 +25164,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25197,11 +25197,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25289,7 +25289,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25320,7 +25320,7 @@
         <v>325</v>
       </c>
       <c r="J20" s="282"/>
-      <c r="K20" s="292"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="283"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25483,11 +25483,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25519,12 +25519,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="304" t="s">
+      <c r="B32" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="304"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="304"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25564,10 +25564,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25587,10 +25587,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25610,10 +25610,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25633,10 +25633,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25656,10 +25656,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25693,11 +25693,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -25712,12 +25712,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -25908,7 +25908,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -25941,7 +25941,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -25974,7 +25974,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="95"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E49" s="283"/>
@@ -26466,11 +26466,11 @@
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="294" t="s">
+      <c r="B73" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="294"/>
-      <c r="D73" s="294"/>
+      <c r="C73" s="300"/>
+      <c r="D73" s="300"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -26487,12 +26487,12 @@
     </row>
     <row r="74" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="88"/>
-      <c r="B74" s="287" t="s">
+      <c r="B74" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="288"/>
-      <c r="D74" s="288"/>
-      <c r="E74" s="289"/>
+      <c r="C74" s="287"/>
+      <c r="D74" s="287"/>
+      <c r="E74" s="288"/>
       <c r="F74" s="144" t="s">
         <v>115</v>
       </c>
@@ -26584,7 +26584,7 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="295" t="s">
+      <c r="D77" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="283"/>
@@ -26617,10 +26617,10 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="295" t="s">
+      <c r="D78" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="296"/>
+      <c r="E78" s="302"/>
       <c r="F78" s="135" t="s">
         <v>205</v>
       </c>
@@ -26650,10 +26650,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="297" t="s">
+      <c r="D79" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="296"/>
+      <c r="E79" s="302"/>
       <c r="F79" s="135" t="s">
         <v>208</v>
       </c>
@@ -27105,11 +27105,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27126,16 +27131,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27241,14 +27241,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27262,14 +27262,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27304,14 +27304,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27349,11 +27349,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27417,19 +27417,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27458,11 +27458,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27491,11 +27491,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27524,11 +27524,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27717,11 +27717,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27753,12 +27753,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27798,10 +27798,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27821,10 +27821,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27844,10 +27844,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27867,10 +27867,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27904,11 +27904,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -27923,12 +27923,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -28425,11 +28425,11 @@
     </row>
     <row r="61" spans="1:15" ht="20" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="294" t="s">
+      <c r="B61" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="294"/>
-      <c r="D61" s="294"/>
+      <c r="C61" s="300"/>
+      <c r="D61" s="300"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -28446,12 +28446,12 @@
     </row>
     <row r="62" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="88"/>
-      <c r="B62" s="287" t="s">
+      <c r="B62" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="288"/>
-      <c r="D62" s="288"/>
-      <c r="E62" s="289"/>
+      <c r="C62" s="287"/>
+      <c r="D62" s="287"/>
+      <c r="E62" s="288"/>
       <c r="F62" s="144" t="s">
         <v>115</v>
       </c>
@@ -28543,7 +28543,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="283"/>
@@ -28576,10 +28576,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>205</v>
       </c>
@@ -28609,10 +28609,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="297" t="s">
+      <c r="D67" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>208</v>
       </c>
@@ -29064,11 +29064,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -29083,12 +29084,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29194,14 +29194,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29215,14 +29215,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29257,14 +29257,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29302,11 +29302,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29370,19 +29370,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29411,11 +29411,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29444,11 +29444,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29477,11 +29477,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29538,7 +29538,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29701,11 +29701,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29737,12 +29737,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29782,10 +29782,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29805,10 +29805,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29828,10 +29828,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29851,10 +29851,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29874,10 +29874,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29911,11 +29911,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -29930,12 +29930,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -30126,7 +30126,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E45" s="283"/>
@@ -30159,7 +30159,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="95"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="283"/>
@@ -30651,11 +30651,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30672,12 +30672,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -30769,7 +30769,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -30802,10 +30802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -30835,10 +30835,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -31290,11 +31290,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B70:D70"/>
@@ -31311,14 +31314,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31342,7 +31342,7 @@
   </sheetPr>
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -31427,14 +31427,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31448,14 +31448,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31490,14 +31490,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31535,11 +31535,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31603,19 +31603,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31644,11 +31644,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31677,11 +31677,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31843,11 +31843,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31879,12 +31879,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -31924,10 +31924,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -31947,10 +31947,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -31970,10 +31970,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32007,11 +32007,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32026,12 +32026,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32222,7 +32222,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -32255,7 +32255,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -32288,7 +32288,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="283"/>
@@ -32828,11 +32828,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
+      <c r="C68" s="300"/>
+      <c r="D68" s="300"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32849,12 +32849,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="287" t="s">
+      <c r="B69" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="288"/>
-      <c r="D69" s="288"/>
-      <c r="E69" s="289"/>
+      <c r="C69" s="287"/>
+      <c r="D69" s="287"/>
+      <c r="E69" s="288"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="295" t="s">
+      <c r="D72" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="283"/>
@@ -32979,10 +32979,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="296"/>
+      <c r="E73" s="302"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33012,10 +33012,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="297" t="s">
+      <c r="D74" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33484,16 +33484,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33510,6 +33500,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33531,7 +33531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
@@ -33616,14 +33616,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33637,14 +33637,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33679,14 +33679,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33724,11 +33724,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33792,19 +33792,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33833,11 +33833,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33999,11 +33999,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34035,12 +34035,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34080,10 +34080,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34103,10 +34103,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34140,11 +34140,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34159,12 +34159,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34355,7 +34355,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -34388,7 +34388,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -34421,7 +34421,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -35038,12 +35038,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35056,6 +35050,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35161,14 +35161,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35182,14 +35182,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35224,14 +35224,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35269,11 +35269,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35337,19 +35337,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35378,11 +35378,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35544,11 +35544,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35580,12 +35580,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35625,10 +35625,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35648,10 +35648,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35685,11 +35685,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35704,12 +35704,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -35900,7 +35900,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -35933,7 +35933,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -35966,7 +35966,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -36583,12 +36583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36601,6 +36595,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36706,14 +36706,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36727,14 +36727,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36769,14 +36769,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36814,11 +36814,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36882,19 +36882,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36923,11 +36923,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36956,11 +36956,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>451</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37122,11 +37122,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37158,12 +37158,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37203,10 +37203,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37226,10 +37226,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37263,11 +37263,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37282,12 +37282,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37478,7 +37478,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -37511,7 +37511,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -37544,7 +37544,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -38161,12 +38161,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38180,6 +38174,12 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38883,14 +38883,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -38904,14 +38904,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -38946,14 +38946,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -38991,11 +38991,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39059,19 +39059,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39100,11 +39100,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39133,11 +39133,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>366</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39299,11 +39299,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39335,12 +39335,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39380,10 +39380,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39403,10 +39403,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39440,11 +39440,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39459,12 +39459,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -39688,7 +39688,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -39721,7 +39721,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -40338,6 +40338,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40350,13 +40357,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40462,14 +40462,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40483,14 +40483,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40528,11 +40528,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40570,11 +40570,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40638,19 +40638,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40679,11 +40679,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40712,9 +40712,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40743,11 +40743,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40841,7 +40841,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41004,11 +41004,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41040,12 +41040,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41085,10 +41085,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41108,10 +41108,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41131,10 +41131,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41154,10 +41154,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41177,10 +41177,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41200,10 +41200,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41237,11 +41237,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41256,12 +41256,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41452,7 +41452,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -41485,7 +41485,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -41518,7 +41518,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E49" s="283"/>
@@ -41551,7 +41551,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="295" t="s">
+      <c r="D50" s="301" t="s">
         <v>358</v>
       </c>
       <c r="E50" s="283"/>
@@ -41952,11 +41952,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="294" t="s">
+      <c r="B71" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="294"/>
-      <c r="D71" s="294"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="300"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -41973,12 +41973,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="287" t="s">
+      <c r="B72" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="288"/>
-      <c r="D72" s="288"/>
-      <c r="E72" s="289"/>
+      <c r="C72" s="287"/>
+      <c r="D72" s="287"/>
+      <c r="E72" s="288"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="283"/>
@@ -42103,10 +42103,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="295" t="s">
+      <c r="D76" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42136,10 +42136,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="297" t="s">
+      <c r="D77" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="296"/>
+      <c r="E77" s="302"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42591,22 +42591,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42623,6 +42607,22 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42728,14 +42728,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42749,14 +42749,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42791,14 +42791,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42836,11 +42836,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -42904,19 +42904,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42945,11 +42945,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42978,11 +42978,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43011,11 +43011,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43072,7 +43072,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43235,11 +43235,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43271,12 +43271,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43316,10 +43316,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>442</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43339,10 +43339,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43362,10 +43362,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43385,10 +43385,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43408,10 +43408,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43445,11 +43445,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -43464,12 +43464,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -43660,7 +43660,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -43693,7 +43693,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -43726,7 +43726,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E47" s="283"/>
@@ -43759,7 +43759,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>358</v>
       </c>
       <c r="E48" s="283"/>
@@ -44191,11 +44191,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -44212,12 +44212,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -44309,7 +44309,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -44342,10 +44342,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -44375,10 +44375,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -44830,21 +44830,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -44861,6 +44846,21 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44966,14 +44966,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -44987,14 +44987,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45029,14 +45029,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45074,11 +45074,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45142,19 +45142,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45183,11 +45183,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45216,11 +45216,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45249,11 +45249,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45442,11 +45442,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45478,12 +45478,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45523,10 +45523,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>443</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45546,10 +45546,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>364</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45569,10 +45569,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45592,10 +45592,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45615,10 +45615,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45652,11 +45652,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -45671,12 +45671,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="158" t="s">
         <v>115</v>
       </c>
@@ -46173,11 +46173,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="294" t="s">
+      <c r="B62" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="294"/>
-      <c r="D62" s="294"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="300"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -46194,12 +46194,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="287" t="s">
+      <c r="B63" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="288"/>
-      <c r="E63" s="289"/>
+      <c r="C63" s="287"/>
+      <c r="D63" s="287"/>
+      <c r="E63" s="288"/>
       <c r="F63" s="158" t="s">
         <v>115</v>
       </c>
@@ -46291,7 +46291,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="283"/>
@@ -46324,10 +46324,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -46357,10 +46357,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="297" t="s">
+      <c r="D68" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -46812,6 +46812,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46824,20 +46838,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46943,14 +46943,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -46964,14 +46964,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47006,14 +47006,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47051,11 +47051,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47119,19 +47119,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47160,11 +47160,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47193,11 +47193,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47359,11 +47359,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47395,12 +47395,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47440,10 +47440,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47463,10 +47463,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47486,10 +47486,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47523,11 +47523,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47542,12 +47542,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47738,7 +47738,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -47771,7 +47771,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -47804,7 +47804,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -48456,12 +48456,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48476,6 +48470,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48581,14 +48581,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48602,14 +48602,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48644,14 +48644,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48689,11 +48689,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48757,19 +48757,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48798,11 +48798,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48831,11 +48831,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48997,11 +48997,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49033,12 +49033,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49078,10 +49078,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49101,10 +49101,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49124,10 +49124,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49161,11 +49161,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49180,12 +49180,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49376,7 +49376,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -49409,7 +49409,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -49442,7 +49442,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -50094,12 +50094,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50114,6 +50108,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50134,9 +50134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -50219,14 +50217,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50240,14 +50238,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50282,14 +50280,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50327,11 +50325,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50395,19 +50393,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50436,11 +50434,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50467,11 +50465,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>384</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50500,11 +50498,11 @@
       <c r="I16" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>385</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50666,11 +50664,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50702,12 +50700,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50747,10 +50745,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50770,10 +50768,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50793,10 +50791,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50830,11 +50828,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="293"/>
-      <c r="D34" s="293"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="291"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50849,12 +50847,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="288"/>
-      <c r="D35" s="288"/>
-      <c r="E35" s="289"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="287"/>
+      <c r="E35" s="288"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51045,7 +51043,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="283"/>
@@ -51078,7 +51076,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>383</v>
       </c>
       <c r="E42" s="283"/>
@@ -51111,7 +51109,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="295" t="s">
+      <c r="D43" s="301" t="s">
         <v>274</v>
       </c>
       <c r="E43" s="283"/>
@@ -51510,11 +51508,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="294" t="s">
+      <c r="B64" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="294"/>
-      <c r="D64" s="294"/>
+      <c r="C64" s="300"/>
+      <c r="D64" s="300"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51531,12 +51529,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="287" t="s">
+      <c r="B65" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="288"/>
-      <c r="D65" s="288"/>
-      <c r="E65" s="289"/>
+      <c r="C65" s="287"/>
+      <c r="D65" s="287"/>
+      <c r="E65" s="288"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51628,7 +51626,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="283"/>
@@ -51661,10 +51659,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="295" t="s">
+      <c r="D69" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51694,10 +51692,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="297" t="s">
+      <c r="D70" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="296"/>
+      <c r="E70" s="302"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52149,6 +52147,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52164,18 +52174,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52196,7 +52194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -52281,14 +52279,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52302,14 +52300,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52344,14 +52342,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52389,11 +52387,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52457,19 +52455,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52498,11 +52496,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52529,11 +52527,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52695,11 +52693,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52731,12 +52729,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52776,10 +52774,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52799,10 +52797,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52822,10 +52820,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -52859,11 +52857,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -52878,12 +52876,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53380,11 +53378,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="294" t="s">
+      <c r="B58" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="294"/>
-      <c r="D58" s="294"/>
+      <c r="C58" s="300"/>
+      <c r="D58" s="300"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53401,12 +53399,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="287" t="s">
+      <c r="B59" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="288"/>
-      <c r="E59" s="289"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="287"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53498,7 +53496,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="295" t="s">
+      <c r="D62" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="283"/>
@@ -53531,10 +53529,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="295" t="s">
+      <c r="D63" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="302"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53564,10 +53562,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="297" t="s">
+      <c r="D64" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="296"/>
+      <c r="E64" s="302"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54019,12 +54017,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54035,13 +54034,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55058,6 +55056,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55074,22 +55088,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55107,7 +55105,7 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -55405,7 +55403,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -56159,11 +56157,11 @@
       <c r="C4" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56180,11 +56178,11 @@
       <c r="C5" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56222,11 +56220,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56264,11 +56262,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56332,19 +56330,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56373,11 +56371,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56406,11 +56404,11 @@
       <c r="I15" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56439,11 +56437,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56508,7 +56506,7 @@
       <c r="J18" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56541,7 +56539,7 @@
       <c r="J19" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56704,11 +56702,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56740,12 +56738,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56785,10 +56783,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56808,10 +56806,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56831,10 +56829,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -56868,11 +56866,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -56887,12 +56885,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57116,10 +57114,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="299" t="s">
+      <c r="D45" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="300"/>
+      <c r="E45" s="285"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57620,11 +57618,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57641,12 +57639,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57738,7 +57736,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -57771,10 +57769,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57804,10 +57802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58259,20 +58257,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58289,6 +58273,20 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58395,14 +58393,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58416,14 +58414,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58458,14 +58456,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58503,11 +58501,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58571,19 +58569,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58612,11 +58610,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58714,7 +58712,7 @@
       <c r="J17" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="292"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="283"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58747,7 +58745,7 @@
       <c r="J18" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -58941,11 +58939,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -58977,12 +58975,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59022,10 +59020,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59045,10 +59043,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59068,10 +59066,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59091,10 +59089,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59147,12 +59145,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59376,10 +59374,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="299" t="s">
+      <c r="D46" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="300"/>
+      <c r="E46" s="285"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -59847,11 +59845,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -59868,12 +59866,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -59965,7 +59963,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -59998,10 +59996,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60031,10 +60029,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60486,6 +60484,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
@@ -60497,23 +60512,6 @@
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60619,14 +60617,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60640,14 +60638,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60682,14 +60680,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60724,14 +60722,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60795,19 +60793,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60836,11 +60834,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -60869,11 +60867,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61035,11 +61033,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61071,12 +61069,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61116,10 +61114,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61139,10 +61137,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61176,11 +61174,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61195,12 +61193,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61424,10 +61422,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="299" t="s">
+      <c r="D40" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="300"/>
+      <c r="E40" s="285"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -61893,11 +61891,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="294" t="s">
+      <c r="B63" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="294"/>
-      <c r="D63" s="294"/>
+      <c r="C63" s="300"/>
+      <c r="D63" s="300"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -61914,12 +61912,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="287" t="s">
+      <c r="B64" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="288"/>
-      <c r="D64" s="288"/>
-      <c r="E64" s="289"/>
+      <c r="C64" s="287"/>
+      <c r="D64" s="287"/>
+      <c r="E64" s="288"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62011,7 +62009,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="283"/>
@@ -62044,10 +62042,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62077,10 +62075,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="297" t="s">
+      <c r="D69" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62532,17 +62530,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62557,6 +62544,17 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -3095,47 +3095,52 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3168,6 +3173,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3195,6 +3210,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3207,53 +3237,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3312,8 +3312,9 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3323,31 +3324,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3364,6 +3350,20 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -18724,7 +18724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -18736,307 +18736,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222" t="s">
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225" t="s">
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="228" t="s">
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="230"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
+      <c r="AC1" s="263"/>
+      <c r="AD1" s="264"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="251" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="220" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="234" t="s">
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="235"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="246" t="s">
+      <c r="L2" s="237"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="256" t="s">
         <v>389</v>
       </c>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="231" t="s">
+      <c r="O2" s="257"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="233" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="231" t="s">
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="231" t="s">
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="233"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="235"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237" t="s">
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="234" t="s">
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="235"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="225" t="s">
+      <c r="L3" s="237"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="241" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="239" t="s">
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="242"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="244" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="242">
+      <c r="W3" s="245"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="247">
         <v>42009</v>
       </c>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="245">
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="250">
         <v>42068</v>
       </c>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
+      <c r="AC3" s="248"/>
+      <c r="AD3" s="249"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263" t="s">
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263" t="s">
+      <c r="G8" s="229"/>
+      <c r="H8" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263" t="s">
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263" t="s">
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="249">
+      <c r="B9" s="230">
         <v>42027</v>
       </c>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="252" t="s">
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="253"/>
-      <c r="H9" s="254" t="s">
+      <c r="G9" s="221"/>
+      <c r="H9" s="222" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="255"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="257" t="s">
+      <c r="I9" s="218"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="223" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="262"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="224"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="225"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="228"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="258"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="262"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="224"/>
+      <c r="V10" s="224"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="227"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="227"/>
+      <c r="AC10" s="228"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="258"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="262"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="224"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="224"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="227"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="228"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="264"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="258"/>
-      <c r="R12" s="258"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="258"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="262"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="224"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="224"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="228"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19071,31 +19071,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19110,11 +19090,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19215,14 +19215,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19236,14 +19236,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19278,14 +19278,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19323,11 +19323,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19391,19 +19391,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19432,11 +19432,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19465,11 +19465,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19498,9 +19498,9 @@
       <c r="I16" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="299"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19529,9 +19529,9 @@
       <c r="I17" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="J17" s="299"/>
-      <c r="K17" s="298"/>
-      <c r="L17" s="298"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19693,11 +19693,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19729,12 +19729,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19774,10 +19774,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19797,10 +19797,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19820,10 +19820,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19843,10 +19843,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19880,11 +19880,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19899,12 +19899,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="286" t="s">
+      <c r="B37" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20416,11 +20416,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="300" t="s">
+      <c r="B60" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="300"/>
-      <c r="D60" s="300"/>
+      <c r="C60" s="294"/>
+      <c r="D60" s="294"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20437,12 +20437,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="286" t="s">
+      <c r="B61" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="287"/>
-      <c r="D61" s="287"/>
-      <c r="E61" s="288"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20534,7 +20534,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="301" t="s">
+      <c r="D64" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="283"/>
@@ -20567,10 +20567,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="301" t="s">
+      <c r="D65" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="302"/>
+      <c r="E65" s="296"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20600,10 +20600,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="303" t="s">
+      <c r="D66" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="302"/>
+      <c r="E66" s="296"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21055,12 +21055,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21077,11 +21076,12 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21187,14 +21187,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21208,14 +21208,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21250,14 +21250,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21292,14 +21292,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="301" t="s">
+      <c r="C9" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21363,19 +21363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21404,11 +21404,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21437,11 +21437,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>450</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21603,11 +21603,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21622,12 +21622,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21667,10 +21667,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>437</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21704,11 +21704,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="291" t="s">
+      <c r="B30" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21723,12 +21723,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21952,10 +21952,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="284" t="s">
+      <c r="D38" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="285"/>
+      <c r="E38" s="300"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22577,12 +22577,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22595,6 +22589,12 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22700,14 +22700,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22721,14 +22721,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22766,11 +22766,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22808,11 +22808,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22876,19 +22876,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22917,11 +22917,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22950,11 +22950,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22983,11 +22983,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23048,7 +23048,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23079,7 +23079,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23242,11 +23242,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23278,12 +23278,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23323,10 +23323,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23346,10 +23346,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23369,10 +23369,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23392,10 +23392,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23429,11 +23429,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23448,12 +23448,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23644,7 +23644,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -23677,7 +23677,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -23710,7 +23710,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E47" s="283"/>
@@ -24140,11 +24140,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24161,12 +24161,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -24291,10 +24291,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24324,10 +24324,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24779,20 +24779,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24809,6 +24795,20 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24914,14 +24914,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24935,14 +24935,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -24977,14 +24977,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25022,11 +25022,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25090,19 +25090,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25131,11 +25131,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25164,11 +25164,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25197,11 +25197,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25289,7 +25289,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25320,7 +25320,7 @@
         <v>325</v>
       </c>
       <c r="J20" s="282"/>
-      <c r="K20" s="289"/>
+      <c r="K20" s="292"/>
       <c r="L20" s="283"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25483,11 +25483,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="290" t="s">
+      <c r="B30" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25519,12 +25519,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="294" t="s">
+      <c r="B32" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="294"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25564,10 +25564,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25587,10 +25587,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25610,10 +25610,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25633,10 +25633,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="292" t="s">
+      <c r="C37" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="293"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25656,10 +25656,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="292" t="s">
+      <c r="C38" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="293"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25693,11 +25693,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -25712,12 +25712,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -25908,7 +25908,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -25941,7 +25941,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -25974,7 +25974,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="95"/>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E49" s="283"/>
@@ -26466,11 +26466,11 @@
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="300" t="s">
+      <c r="B73" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="300"/>
-      <c r="D73" s="300"/>
+      <c r="C73" s="294"/>
+      <c r="D73" s="294"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -26487,12 +26487,12 @@
     </row>
     <row r="74" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="88"/>
-      <c r="B74" s="286" t="s">
+      <c r="B74" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="287"/>
-      <c r="D74" s="287"/>
-      <c r="E74" s="288"/>
+      <c r="C74" s="288"/>
+      <c r="D74" s="288"/>
+      <c r="E74" s="289"/>
       <c r="F74" s="144" t="s">
         <v>115</v>
       </c>
@@ -26584,7 +26584,7 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="301" t="s">
+      <c r="D77" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="283"/>
@@ -26617,10 +26617,10 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="301" t="s">
+      <c r="D78" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="302"/>
+      <c r="E78" s="296"/>
       <c r="F78" s="135" t="s">
         <v>205</v>
       </c>
@@ -26650,10 +26650,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="302"/>
+      <c r="E79" s="296"/>
       <c r="F79" s="135" t="s">
         <v>208</v>
       </c>
@@ -27105,16 +27105,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27131,11 +27126,16 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27241,14 +27241,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27262,14 +27262,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27304,14 +27304,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27349,11 +27349,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27417,19 +27417,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27458,11 +27458,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27491,11 +27491,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27524,11 +27524,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27717,11 +27717,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27753,12 +27753,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27798,10 +27798,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27821,10 +27821,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27844,10 +27844,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27867,10 +27867,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27904,11 +27904,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -27923,12 +27923,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="286" t="s">
+      <c r="B37" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -28425,11 +28425,11 @@
     </row>
     <row r="61" spans="1:15" ht="20" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="300"/>
-      <c r="D61" s="300"/>
+      <c r="C61" s="294"/>
+      <c r="D61" s="294"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -28446,12 +28446,12 @@
     </row>
     <row r="62" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="88"/>
-      <c r="B62" s="286" t="s">
+      <c r="B62" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="287"/>
-      <c r="D62" s="287"/>
-      <c r="E62" s="288"/>
+      <c r="C62" s="288"/>
+      <c r="D62" s="288"/>
+      <c r="E62" s="289"/>
       <c r="F62" s="144" t="s">
         <v>115</v>
       </c>
@@ -28543,7 +28543,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="301" t="s">
+      <c r="D65" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="283"/>
@@ -28576,10 +28576,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="301" t="s">
+      <c r="D66" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="302"/>
+      <c r="E66" s="296"/>
       <c r="F66" s="135" t="s">
         <v>205</v>
       </c>
@@ -28609,10 +28609,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="302"/>
+      <c r="E67" s="296"/>
       <c r="F67" s="135" t="s">
         <v>208</v>
       </c>
@@ -29064,12 +29064,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -29084,11 +29083,12 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29194,14 +29194,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29215,14 +29215,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29257,14 +29257,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29302,11 +29302,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29370,19 +29370,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29411,11 +29411,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29444,11 +29444,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29477,11 +29477,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29538,7 +29538,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29701,11 +29701,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29737,12 +29737,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29782,10 +29782,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29805,10 +29805,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29828,10 +29828,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29851,10 +29851,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29874,10 +29874,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29911,11 +29911,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -29930,12 +29930,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -30126,7 +30126,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E45" s="283"/>
@@ -30159,7 +30159,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="95"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="283"/>
@@ -30651,11 +30651,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="300" t="s">
+      <c r="B70" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
+      <c r="C70" s="294"/>
+      <c r="D70" s="294"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30672,12 +30672,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="286" t="s">
+      <c r="B71" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="287"/>
-      <c r="D71" s="287"/>
-      <c r="E71" s="288"/>
+      <c r="C71" s="288"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -30769,7 +30769,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -30802,10 +30802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -30835,10 +30835,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -31290,14 +31290,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B70:D70"/>
@@ -31314,11 +31311,14 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31427,14 +31427,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31448,14 +31448,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31490,14 +31490,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31535,11 +31535,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31603,19 +31603,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31644,11 +31644,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31677,11 +31677,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31843,11 +31843,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31879,12 +31879,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -31924,10 +31924,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -31947,10 +31947,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -31970,10 +31970,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32007,11 +32007,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32026,12 +32026,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32222,7 +32222,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -32255,7 +32255,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -32288,7 +32288,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="283"/>
@@ -32828,11 +32828,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="300" t="s">
+      <c r="B68" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="300"/>
-      <c r="D68" s="300"/>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32849,12 +32849,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="286" t="s">
+      <c r="B69" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="287"/>
-      <c r="D69" s="287"/>
-      <c r="E69" s="288"/>
+      <c r="C69" s="288"/>
+      <c r="D69" s="288"/>
+      <c r="E69" s="289"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="301" t="s">
+      <c r="D72" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="283"/>
@@ -32979,10 +32979,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="302"/>
+      <c r="E73" s="296"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33012,10 +33012,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="303" t="s">
+      <c r="D74" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33484,6 +33484,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33500,16 +33510,6 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33616,14 +33616,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33637,14 +33637,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33679,14 +33679,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33724,11 +33724,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33792,19 +33792,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33833,11 +33833,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33999,11 +33999,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34035,12 +34035,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34080,10 +34080,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34103,10 +34103,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34140,11 +34140,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34159,12 +34159,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="286" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34355,7 +34355,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="301" t="s">
+      <c r="D38" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -34388,7 +34388,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -34421,7 +34421,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -35038,6 +35038,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35050,12 +35056,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35161,14 +35161,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35182,14 +35182,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35224,14 +35224,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35269,11 +35269,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35337,19 +35337,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35378,11 +35378,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35544,11 +35544,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35580,12 +35580,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35625,10 +35625,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="292" t="s">
+      <c r="C28" s="302" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="293"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35648,10 +35648,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35685,11 +35685,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35704,12 +35704,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="286" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -35900,7 +35900,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="301" t="s">
+      <c r="D38" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -35933,7 +35933,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -35966,7 +35966,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -36583,6 +36583,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36595,12 +36601,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36706,14 +36706,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36727,14 +36727,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36769,14 +36769,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36814,11 +36814,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36882,19 +36882,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36923,11 +36923,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36956,11 +36956,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>451</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37122,11 +37122,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37158,12 +37158,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37203,10 +37203,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37226,10 +37226,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37263,11 +37263,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37282,12 +37282,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37478,7 +37478,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -37511,7 +37511,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -37544,7 +37544,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -38161,6 +38161,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38174,12 +38180,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38883,14 +38883,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -38904,14 +38904,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -38946,14 +38946,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -38991,11 +38991,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39059,19 +39059,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39100,11 +39100,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39133,11 +39133,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>366</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39299,11 +39299,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39335,12 +39335,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39380,10 +39380,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39403,10 +39403,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39440,11 +39440,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39459,12 +39459,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="301" t="s">
+      <c r="D39" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -39688,7 +39688,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -39721,7 +39721,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -40338,13 +40338,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40357,6 +40350,13 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40462,14 +40462,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40483,14 +40483,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40528,11 +40528,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40570,11 +40570,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40638,19 +40638,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40679,11 +40679,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40712,9 +40712,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299"/>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="J15" s="291"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40743,11 +40743,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40841,7 +40841,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41004,11 +41004,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41040,12 +41040,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41085,10 +41085,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41108,10 +41108,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41131,10 +41131,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41154,10 +41154,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41177,10 +41177,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="292" t="s">
+      <c r="C37" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="293"/>
+      <c r="D37" s="303"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41200,10 +41200,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="292" t="s">
+      <c r="C38" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="293"/>
+      <c r="D38" s="303"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41237,11 +41237,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41256,12 +41256,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="288"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41452,7 +41452,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -41485,7 +41485,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -41518,7 +41518,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="295" t="s">
         <v>393</v>
       </c>
       <c r="E49" s="283"/>
@@ -41551,7 +41551,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="301" t="s">
+      <c r="D50" s="295" t="s">
         <v>358</v>
       </c>
       <c r="E50" s="283"/>
@@ -41952,11 +41952,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="300" t="s">
+      <c r="B71" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="300"/>
-      <c r="D71" s="300"/>
+      <c r="C71" s="294"/>
+      <c r="D71" s="294"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -41973,12 +41973,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="286" t="s">
+      <c r="B72" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="287"/>
-      <c r="D72" s="287"/>
-      <c r="E72" s="288"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="283"/>
@@ -42103,10 +42103,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="301" t="s">
+      <c r="D76" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42136,10 +42136,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="303" t="s">
+      <c r="D77" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="302"/>
+      <c r="E77" s="296"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42591,6 +42591,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42607,22 +42623,6 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42728,14 +42728,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42749,14 +42749,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42791,14 +42791,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42836,11 +42836,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -42904,19 +42904,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42945,11 +42945,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42978,11 +42978,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43011,11 +43011,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43072,7 +43072,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43235,11 +43235,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43271,12 +43271,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43316,10 +43316,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>442</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43339,10 +43339,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43362,10 +43362,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43385,10 +43385,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43408,10 +43408,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43445,11 +43445,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="291" t="s">
+      <c r="B38" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -43464,12 +43464,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -43660,7 +43660,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="301" t="s">
+      <c r="D45" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -43693,7 +43693,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="301" t="s">
+      <c r="D46" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -43726,7 +43726,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="301" t="s">
+      <c r="D47" s="295" t="s">
         <v>393</v>
       </c>
       <c r="E47" s="283"/>
@@ -43759,7 +43759,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="295" t="s">
         <v>358</v>
       </c>
       <c r="E48" s="283"/>
@@ -44191,11 +44191,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="300" t="s">
+      <c r="B70" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
+      <c r="C70" s="294"/>
+      <c r="D70" s="294"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -44212,12 +44212,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="286" t="s">
+      <c r="B71" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="287"/>
-      <c r="D71" s="287"/>
-      <c r="E71" s="288"/>
+      <c r="C71" s="288"/>
+      <c r="D71" s="288"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -44309,7 +44309,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -44342,10 +44342,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="301" t="s">
+      <c r="D75" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -44375,10 +44375,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="302"/>
+      <c r="E76" s="296"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -44830,6 +44830,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -44846,21 +44861,6 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44966,14 +44966,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -44987,14 +44987,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45029,14 +45029,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45074,11 +45074,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45142,19 +45142,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45183,11 +45183,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45216,11 +45216,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45249,11 +45249,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45442,11 +45442,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45478,12 +45478,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45523,10 +45523,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>443</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45546,10 +45546,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>364</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45569,10 +45569,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45592,10 +45592,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45615,10 +45615,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45652,11 +45652,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="291"/>
-      <c r="D37" s="291"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -45671,12 +45671,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="287"/>
-      <c r="E38" s="288"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="158" t="s">
         <v>115</v>
       </c>
@@ -46173,11 +46173,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="300" t="s">
+      <c r="B62" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="300"/>
-      <c r="D62" s="300"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="294"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -46194,12 +46194,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="286" t="s">
+      <c r="B63" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="287"/>
-      <c r="D63" s="287"/>
-      <c r="E63" s="288"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="288"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="158" t="s">
         <v>115</v>
       </c>
@@ -46291,7 +46291,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="301" t="s">
+      <c r="D66" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="283"/>
@@ -46324,10 +46324,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="301" t="s">
+      <c r="D67" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="302"/>
+      <c r="E67" s="296"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -46357,10 +46357,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="303" t="s">
+      <c r="D68" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="302"/>
+      <c r="E68" s="296"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -46812,20 +46812,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46838,6 +46824,20 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46943,14 +46943,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -46964,14 +46964,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47006,14 +47006,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47051,11 +47051,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47119,19 +47119,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47160,11 +47160,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47193,11 +47193,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47359,11 +47359,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47395,12 +47395,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47440,10 +47440,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47463,10 +47463,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47486,10 +47486,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47523,11 +47523,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47542,12 +47542,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47738,7 +47738,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -47771,7 +47771,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -47804,7 +47804,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -48456,6 +48456,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48470,12 +48476,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48581,14 +48581,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48602,14 +48602,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48644,14 +48644,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48689,11 +48689,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48757,19 +48757,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48798,11 +48798,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48831,11 +48831,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48997,11 +48997,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49033,12 +49033,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49078,10 +49078,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49101,10 +49101,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49124,10 +49124,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49161,11 +49161,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49180,12 +49180,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49376,7 +49376,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -49409,7 +49409,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -49442,7 +49442,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -50094,6 +50094,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50108,12 +50114,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50134,7 +50134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -50217,14 +50217,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50238,14 +50238,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50280,14 +50280,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50325,11 +50325,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50393,19 +50393,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50434,11 +50434,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50465,11 +50465,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50498,11 +50498,11 @@
       <c r="I16" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>385</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50664,11 +50664,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50700,12 +50700,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="294"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50745,10 +50745,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50768,10 +50768,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50791,10 +50791,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D32" s="293"/>
+      <c r="D32" s="303"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50828,11 +50828,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="291" t="s">
+      <c r="B34" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="291"/>
-      <c r="D34" s="291"/>
+      <c r="C34" s="293"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50847,12 +50847,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="286" t="s">
+      <c r="B35" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="287"/>
-      <c r="D35" s="287"/>
-      <c r="E35" s="288"/>
+      <c r="C35" s="288"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="289"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51043,7 +51043,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="295" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="283"/>
@@ -51076,7 +51076,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="301" t="s">
+      <c r="D42" s="295" t="s">
         <v>383</v>
       </c>
       <c r="E42" s="283"/>
@@ -51109,7 +51109,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="301" t="s">
+      <c r="D43" s="295" t="s">
         <v>274</v>
       </c>
       <c r="E43" s="283"/>
@@ -51508,11 +51508,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="300" t="s">
+      <c r="B64" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="300"/>
-      <c r="D64" s="300"/>
+      <c r="C64" s="294"/>
+      <c r="D64" s="294"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51529,12 +51529,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="286" t="s">
+      <c r="B65" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="287"/>
-      <c r="D65" s="287"/>
-      <c r="E65" s="288"/>
+      <c r="C65" s="288"/>
+      <c r="D65" s="288"/>
+      <c r="E65" s="289"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51626,7 +51626,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="301" t="s">
+      <c r="D68" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="283"/>
@@ -51659,10 +51659,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="301" t="s">
+      <c r="D69" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="302"/>
+      <c r="E69" s="296"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51692,10 +51692,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="302"/>
+      <c r="E70" s="296"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52147,18 +52147,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52174,6 +52162,18 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52194,7 +52194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -52279,14 +52279,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52300,14 +52300,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52342,14 +52342,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52387,11 +52387,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52455,19 +52455,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52496,11 +52496,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52527,11 +52527,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52693,11 +52693,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52729,12 +52729,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52774,10 +52774,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52797,10 +52797,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52820,10 +52820,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="292" t="s">
+      <c r="C31" s="302" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="293"/>
+      <c r="D31" s="303"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -52857,11 +52857,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -52876,12 +52876,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="286" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53378,11 +53378,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="300" t="s">
+      <c r="B58" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="300"/>
-      <c r="D58" s="300"/>
+      <c r="C58" s="294"/>
+      <c r="D58" s="294"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53399,12 +53399,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="286" t="s">
+      <c r="B59" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="287"/>
-      <c r="D59" s="287"/>
-      <c r="E59" s="288"/>
+      <c r="C59" s="288"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="289"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53496,7 +53496,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="301" t="s">
+      <c r="D62" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="283"/>
@@ -53529,10 +53529,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="301" t="s">
+      <c r="D63" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="302"/>
+      <c r="E63" s="296"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53562,10 +53562,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="302"/>
+      <c r="E64" s="296"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54017,13 +54017,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54034,12 +54033,13 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55056,22 +55056,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55088,6 +55072,22 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55105,7 +55105,7 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -56157,11 +56157,11 @@
       <c r="C4" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56178,11 +56178,11 @@
       <c r="C5" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56220,11 +56220,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56262,11 +56262,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56330,19 +56330,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56371,11 +56371,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56404,11 +56404,11 @@
       <c r="I15" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="298" t="s">
+      <c r="J15" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56437,11 +56437,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="299" t="s">
+      <c r="J16" s="291" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56506,7 +56506,7 @@
       <c r="J18" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56539,7 +56539,7 @@
       <c r="J19" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="289"/>
+      <c r="K19" s="292"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56702,11 +56702,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56738,12 +56738,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56783,10 +56783,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56806,10 +56806,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56829,10 +56829,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -56866,11 +56866,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="291"/>
-      <c r="D37" s="291"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -56885,12 +56885,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="287"/>
-      <c r="E38" s="288"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57114,10 +57114,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="284" t="s">
+      <c r="D45" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="285"/>
+      <c r="E45" s="300"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57618,11 +57618,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57639,12 +57639,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57736,7 +57736,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -57769,10 +57769,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57802,10 +57802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58257,6 +58257,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58273,20 +58287,6 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58308,7 +58308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -58393,14 +58393,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58414,14 +58414,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58456,14 +58456,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58501,11 +58501,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58569,19 +58569,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58610,11 +58610,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58712,7 +58712,7 @@
       <c r="J17" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="289"/>
+      <c r="K17" s="292"/>
       <c r="L17" s="283"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58745,7 +58745,7 @@
       <c r="J18" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="289"/>
+      <c r="K18" s="292"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -58939,11 +58939,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -58975,12 +58975,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59020,10 +59020,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="302" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="293"/>
+      <c r="D33" s="303"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59043,10 +59043,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="302" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="293"/>
+      <c r="D34" s="303"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59066,10 +59066,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="292" t="s">
+      <c r="C35" s="302" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="293"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59089,10 +59089,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="302" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="293"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59145,12 +59145,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59374,10 +59374,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="284" t="s">
+      <c r="D46" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="285"/>
+      <c r="E46" s="300"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -59845,11 +59845,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="300" t="s">
+      <c r="B69" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="C69" s="294"/>
+      <c r="D69" s="294"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -59866,12 +59866,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="286" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="288"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -59963,7 +59963,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="301" t="s">
+      <c r="D73" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -59996,10 +59996,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="301" t="s">
+      <c r="D74" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="302"/>
+      <c r="E74" s="296"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60029,10 +60029,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="303" t="s">
+      <c r="D75" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="302"/>
+      <c r="E75" s="296"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60484,12 +60484,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B38:D38"/>
@@ -60501,17 +60506,12 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60617,14 +60617,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="295" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60638,14 +60638,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="295" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60680,14 +60680,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60722,14 +60722,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="301" t="s">
+      <c r="C9" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60793,19 +60793,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="297"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="286"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60834,11 +60834,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="304" t="s">
+      <c r="J14" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -60867,11 +60867,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="299" t="s">
+      <c r="J15" s="291" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61033,11 +61033,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61069,12 +61069,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61114,10 +61114,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="292" t="s">
+      <c r="C29" s="302" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="293"/>
+      <c r="D29" s="303"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61137,10 +61137,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="292" t="s">
+      <c r="C30" s="302" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="293"/>
+      <c r="D30" s="303"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61174,11 +61174,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61193,12 +61193,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="286" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61422,10 +61422,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="284" t="s">
+      <c r="D40" s="299" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="285"/>
+      <c r="E40" s="300"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -61891,11 +61891,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="300" t="s">
+      <c r="B63" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="300"/>
-      <c r="D63" s="300"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="294"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -61912,12 +61912,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="286" t="s">
+      <c r="B64" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="287"/>
-      <c r="D64" s="287"/>
-      <c r="E64" s="288"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="288"/>
+      <c r="E64" s="289"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62009,7 +62009,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="301" t="s">
+      <c r="D67" s="295" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="283"/>
@@ -62042,10 +62042,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="301" t="s">
+      <c r="D68" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="302"/>
+      <c r="E68" s="296"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62075,10 +62075,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="303" t="s">
+      <c r="D69" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="302"/>
+      <c r="E69" s="296"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62530,6 +62530,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62544,17 +62555,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957"/>
+    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -3095,52 +3095,47 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3173,16 +3168,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3210,21 +3195,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3237,23 +3207,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3312,9 +3312,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3324,16 +3323,31 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3350,20 +3364,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4614,14 +4614,14 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 201</a:t>
+            <a:t>HTTP/1.1 200</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> Created</a:t>
+            <a:t> OK</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4683,16 +4683,16 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code": 201,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "message": "Account created success!"</a:t>
+            <a:t>      "code": 200,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "message": "Active/Deactive post success!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18724,7 +18724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -18736,307 +18736,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="259" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="260"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="241" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="242"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="262" t="s">
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="263"/>
-      <c r="AA1" s="263"/>
-      <c r="AB1" s="263"/>
-      <c r="AC1" s="263"/>
-      <c r="AD1" s="264"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="230"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="236" t="s">
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="237"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="256" t="s">
+      <c r="L2" s="235"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="233" t="s">
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="233" t="s">
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="233" t="s">
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="235"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="233"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="236" t="s">
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="237"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="241" t="s">
+      <c r="L3" s="235"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="244" t="s">
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="239" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="247">
+      <c r="W3" s="240"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="242">
         <v>42009</v>
       </c>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="250">
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="245">
         <v>42068</v>
       </c>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="249"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229" t="s">
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229" t="s">
+      <c r="G8" s="263"/>
+      <c r="H8" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229" t="s">
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229" t="s">
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="263"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="230">
+      <c r="B9" s="249">
         <v>42027</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="220" t="s">
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="252" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222" t="s">
+      <c r="G9" s="253"/>
+      <c r="H9" s="254" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="218"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="223" t="s">
+      <c r="I9" s="255"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="257" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="228"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="258"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="262"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="222"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="228"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="258"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="262"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="222"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="228"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="260"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="262"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="228"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19071,11 +19071,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19090,31 +19110,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19215,14 +19215,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19236,14 +19236,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19278,14 +19278,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19323,11 +19323,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19391,19 +19391,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19432,11 +19432,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19465,11 +19465,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19498,9 +19498,9 @@
       <c r="I16" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="291"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19529,9 +19529,9 @@
       <c r="I17" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="J17" s="291"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="298"/>
+      <c r="L17" s="298"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19693,11 +19693,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19729,12 +19729,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19774,10 +19774,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19797,10 +19797,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19820,10 +19820,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19843,10 +19843,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19880,11 +19880,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19899,12 +19899,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20416,11 +20416,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="294" t="s">
+      <c r="B60" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="294"/>
-      <c r="D60" s="294"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="300"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20437,12 +20437,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="287" t="s">
+      <c r="B61" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="288"/>
-      <c r="D61" s="288"/>
-      <c r="E61" s="289"/>
+      <c r="C61" s="287"/>
+      <c r="D61" s="287"/>
+      <c r="E61" s="288"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20534,7 +20534,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="295" t="s">
+      <c r="D64" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="283"/>
@@ -20567,10 +20567,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="296"/>
+      <c r="E65" s="302"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20600,10 +20600,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="297" t="s">
+      <c r="D66" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21055,11 +21055,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21076,12 +21077,11 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21187,14 +21187,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21208,14 +21208,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21250,14 +21250,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21292,14 +21292,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21363,19 +21363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21404,11 +21404,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21437,11 +21437,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>450</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21603,11 +21603,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21622,12 +21622,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21667,10 +21667,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21704,11 +21704,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="293" t="s">
+      <c r="B30" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21723,12 +21723,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="287" t="s">
+      <c r="B31" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="288"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="288"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21952,10 +21952,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="299" t="s">
+      <c r="D38" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="300"/>
+      <c r="E38" s="285"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22577,6 +22577,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22589,12 +22595,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22700,14 +22700,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22721,14 +22721,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22766,11 +22766,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22808,11 +22808,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22876,19 +22876,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22917,11 +22917,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22950,11 +22950,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22983,11 +22983,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23048,7 +23048,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23079,7 +23079,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23242,11 +23242,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23278,12 +23278,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23323,10 +23323,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23346,10 +23346,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23369,10 +23369,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23392,10 +23392,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23429,11 +23429,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23448,12 +23448,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23644,7 +23644,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -23677,7 +23677,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -23710,7 +23710,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E47" s="283"/>
@@ -24140,11 +24140,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24161,12 +24161,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -24291,10 +24291,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24324,10 +24324,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24779,6 +24779,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24795,20 +24809,6 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24914,14 +24914,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24935,14 +24935,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -24977,14 +24977,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25022,11 +25022,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25090,19 +25090,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25131,11 +25131,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25164,11 +25164,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25197,11 +25197,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25289,7 +25289,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25320,7 +25320,7 @@
         <v>325</v>
       </c>
       <c r="J20" s="282"/>
-      <c r="K20" s="292"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="283"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25483,11 +25483,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="301" t="s">
+      <c r="B30" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25519,12 +25519,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="304" t="s">
+      <c r="B32" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="304"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="304"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="294"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25564,10 +25564,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25587,10 +25587,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25610,10 +25610,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25633,10 +25633,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25656,10 +25656,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25693,11 +25693,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -25712,12 +25712,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -25908,7 +25908,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -25941,7 +25941,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -25974,7 +25974,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="95"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E49" s="283"/>
@@ -26466,11 +26466,11 @@
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="294" t="s">
+      <c r="B73" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="294"/>
-      <c r="D73" s="294"/>
+      <c r="C73" s="300"/>
+      <c r="D73" s="300"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -26487,12 +26487,12 @@
     </row>
     <row r="74" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="88"/>
-      <c r="B74" s="287" t="s">
+      <c r="B74" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="288"/>
-      <c r="D74" s="288"/>
-      <c r="E74" s="289"/>
+      <c r="C74" s="287"/>
+      <c r="D74" s="287"/>
+      <c r="E74" s="288"/>
       <c r="F74" s="144" t="s">
         <v>115</v>
       </c>
@@ -26584,7 +26584,7 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="295" t="s">
+      <c r="D77" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E77" s="283"/>
@@ -26617,10 +26617,10 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="295" t="s">
+      <c r="D78" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="296"/>
+      <c r="E78" s="302"/>
       <c r="F78" s="135" t="s">
         <v>205</v>
       </c>
@@ -26650,10 +26650,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="297" t="s">
+      <c r="D79" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="296"/>
+      <c r="E79" s="302"/>
       <c r="F79" s="135" t="s">
         <v>208</v>
       </c>
@@ -27105,11 +27105,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27126,16 +27131,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27241,14 +27241,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27262,14 +27262,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27304,14 +27304,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27349,11 +27349,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27417,19 +27417,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27458,11 +27458,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27491,11 +27491,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27524,11 +27524,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27717,11 +27717,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27753,12 +27753,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27798,10 +27798,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27821,10 +27821,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27844,10 +27844,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27867,10 +27867,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27904,11 +27904,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -27923,12 +27923,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="287" t="s">
+      <c r="B37" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="288"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="289"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -28425,11 +28425,11 @@
     </row>
     <row r="61" spans="1:15" ht="20" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="294" t="s">
+      <c r="B61" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="294"/>
-      <c r="D61" s="294"/>
+      <c r="C61" s="300"/>
+      <c r="D61" s="300"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
@@ -28446,12 +28446,12 @@
     </row>
     <row r="62" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="88"/>
-      <c r="B62" s="287" t="s">
+      <c r="B62" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="288"/>
-      <c r="D62" s="288"/>
-      <c r="E62" s="289"/>
+      <c r="C62" s="287"/>
+      <c r="D62" s="287"/>
+      <c r="E62" s="288"/>
       <c r="F62" s="144" t="s">
         <v>115</v>
       </c>
@@ -28543,7 +28543,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E65" s="283"/>
@@ -28576,10 +28576,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="296"/>
+      <c r="E66" s="302"/>
       <c r="F66" s="135" t="s">
         <v>205</v>
       </c>
@@ -28609,10 +28609,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="297" t="s">
+      <c r="D67" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>208</v>
       </c>
@@ -29064,11 +29064,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -29083,12 +29084,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29109,8 +29109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -29194,14 +29194,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29215,14 +29215,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29257,14 +29257,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29302,11 +29302,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29370,19 +29370,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29411,11 +29411,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29444,11 +29444,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29477,11 +29477,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29538,7 +29538,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29701,11 +29701,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29737,12 +29737,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29782,10 +29782,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29805,10 +29805,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29828,10 +29828,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29851,10 +29851,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29874,10 +29874,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29911,11 +29911,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -29930,12 +29930,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -30126,7 +30126,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E45" s="283"/>
@@ -30159,7 +30159,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="95"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="283"/>
@@ -30651,11 +30651,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30672,12 +30672,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -30769,7 +30769,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -30802,10 +30802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -30835,10 +30835,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -31290,11 +31290,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B70:D70"/>
@@ -31311,14 +31314,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31427,14 +31427,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31448,14 +31448,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31490,14 +31490,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31535,11 +31535,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31603,19 +31603,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31644,11 +31644,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31677,11 +31677,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31843,11 +31843,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31879,12 +31879,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -31924,10 +31924,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -31947,10 +31947,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -31970,10 +31970,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32007,11 +32007,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32026,12 +32026,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32222,7 +32222,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -32255,7 +32255,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -32288,7 +32288,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="283"/>
@@ -32828,11 +32828,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
+      <c r="C68" s="300"/>
+      <c r="D68" s="300"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32849,12 +32849,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="287" t="s">
+      <c r="B69" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="288"/>
-      <c r="D69" s="288"/>
-      <c r="E69" s="289"/>
+      <c r="C69" s="287"/>
+      <c r="D69" s="287"/>
+      <c r="E69" s="288"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="295" t="s">
+      <c r="D72" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="283"/>
@@ -32979,10 +32979,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="296"/>
+      <c r="E73" s="302"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33012,10 +33012,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="297" t="s">
+      <c r="D74" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33484,16 +33484,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33510,6 +33500,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33616,14 +33616,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33637,14 +33637,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33679,14 +33679,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33724,11 +33724,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33792,19 +33792,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33833,11 +33833,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33999,11 +33999,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34035,12 +34035,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34080,10 +34080,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34103,10 +34103,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34140,11 +34140,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34159,12 +34159,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34355,7 +34355,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -34388,7 +34388,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -34421,7 +34421,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -35038,12 +35038,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35056,6 +35050,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35161,14 +35161,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35182,14 +35182,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35224,14 +35224,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35269,11 +35269,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35337,19 +35337,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35378,11 +35378,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35544,11 +35544,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35580,12 +35580,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35625,10 +35625,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="303"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35648,10 +35648,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35685,11 +35685,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35704,12 +35704,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="288"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -35900,7 +35900,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="283"/>
@@ -35933,7 +35933,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="283"/>
@@ -35966,7 +35966,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="283"/>
@@ -36583,12 +36583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36601,6 +36595,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36706,14 +36706,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36727,14 +36727,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36769,14 +36769,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36814,11 +36814,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36882,19 +36882,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36923,11 +36923,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36956,11 +36956,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>451</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37122,11 +37122,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37158,12 +37158,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37203,10 +37203,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37226,10 +37226,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37263,11 +37263,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37282,12 +37282,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37478,7 +37478,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -37511,7 +37511,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -37544,7 +37544,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -38161,12 +38161,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38180,6 +38174,12 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38883,14 +38883,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -38904,14 +38904,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -38946,14 +38946,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -38991,11 +38991,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39059,19 +39059,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39100,11 +39100,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39133,11 +39133,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>366</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39299,11 +39299,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39335,12 +39335,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39380,10 +39380,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39403,10 +39403,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39440,11 +39440,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39459,12 +39459,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="295" t="s">
+      <c r="D39" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="283"/>
@@ -39688,7 +39688,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="283"/>
@@ -39721,7 +39721,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="283"/>
@@ -40338,6 +40338,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40350,13 +40357,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40462,14 +40462,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40483,14 +40483,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40528,11 +40528,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40570,11 +40570,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40638,19 +40638,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40679,11 +40679,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40712,9 +40712,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40743,11 +40743,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40841,7 +40841,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="282"/>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41004,11 +41004,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41040,12 +41040,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41085,10 +41085,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41108,10 +41108,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41131,10 +41131,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41154,10 +41154,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41177,10 +41177,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="302" t="s">
+      <c r="C37" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="303"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41200,10 +41200,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="302" t="s">
+      <c r="C38" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="303"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41237,11 +41237,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41256,12 +41256,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="287" t="s">
+      <c r="B41" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="289"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41452,7 +41452,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="283"/>
@@ -41485,7 +41485,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="283"/>
@@ -41518,7 +41518,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E49" s="283"/>
@@ -41551,7 +41551,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="295" t="s">
+      <c r="D50" s="301" t="s">
         <v>358</v>
       </c>
       <c r="E50" s="283"/>
@@ -41952,11 +41952,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="294" t="s">
+      <c r="B71" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="294"/>
-      <c r="D71" s="294"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="300"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -41973,12 +41973,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="287" t="s">
+      <c r="B72" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="288"/>
-      <c r="D72" s="288"/>
-      <c r="E72" s="289"/>
+      <c r="C72" s="287"/>
+      <c r="D72" s="287"/>
+      <c r="E72" s="288"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="283"/>
@@ -42103,10 +42103,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="295" t="s">
+      <c r="D76" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42136,10 +42136,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="297" t="s">
+      <c r="D77" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="296"/>
+      <c r="E77" s="302"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42591,22 +42591,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42623,6 +42607,22 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42728,14 +42728,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42749,14 +42749,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42791,14 +42791,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42836,11 +42836,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -42904,19 +42904,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42945,11 +42945,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42978,11 +42978,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43011,11 +43011,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43072,7 +43072,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="282"/>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43235,11 +43235,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43271,12 +43271,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="304" t="s">
+      <c r="B30" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43316,10 +43316,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>442</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43339,10 +43339,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43362,10 +43362,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43385,10 +43385,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43408,10 +43408,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43445,11 +43445,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="293" t="s">
+      <c r="B38" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -43464,12 +43464,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -43660,7 +43660,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="283"/>
@@ -43693,7 +43693,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="283"/>
@@ -43726,7 +43726,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="295" t="s">
+      <c r="D47" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E47" s="283"/>
@@ -43759,7 +43759,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="301" t="s">
         <v>358</v>
       </c>
       <c r="E48" s="283"/>
@@ -44191,11 +44191,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="294"/>
-      <c r="D70" s="294"/>
+      <c r="C70" s="300"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -44212,12 +44212,12 @@
     </row>
     <row r="71" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="88"/>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="288"/>
-      <c r="D71" s="288"/>
-      <c r="E71" s="289"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="288"/>
       <c r="F71" s="144" t="s">
         <v>115</v>
       </c>
@@ -44309,7 +44309,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="283"/>
@@ -44342,10 +44342,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="295" t="s">
+      <c r="D75" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>205</v>
       </c>
@@ -44375,10 +44375,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="297" t="s">
+      <c r="D76" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="296"/>
+      <c r="E76" s="302"/>
       <c r="F76" s="135" t="s">
         <v>208</v>
       </c>
@@ -44830,21 +44830,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -44861,6 +44846,21 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44966,14 +44966,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -44987,14 +44987,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45029,14 +45029,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45074,11 +45074,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45142,19 +45142,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45183,11 +45183,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45216,11 +45216,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45249,11 +45249,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45442,11 +45442,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="293"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45478,12 +45478,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45523,10 +45523,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>443</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45546,10 +45546,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>364</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45569,10 +45569,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45592,10 +45592,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45615,10 +45615,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45652,11 +45652,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -45671,12 +45671,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="158" t="s">
         <v>115</v>
       </c>
@@ -46173,11 +46173,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="294" t="s">
+      <c r="B62" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="294"/>
-      <c r="D62" s="294"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="300"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -46194,12 +46194,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="287" t="s">
+      <c r="B63" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="288"/>
-      <c r="D63" s="288"/>
-      <c r="E63" s="289"/>
+      <c r="C63" s="287"/>
+      <c r="D63" s="287"/>
+      <c r="E63" s="288"/>
       <c r="F63" s="158" t="s">
         <v>115</v>
       </c>
@@ -46291,7 +46291,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="283"/>
@@ -46324,10 +46324,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="296"/>
+      <c r="E67" s="302"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -46357,10 +46357,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="297" t="s">
+      <c r="D68" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -46812,6 +46812,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46824,20 +46838,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46943,14 +46943,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -46964,14 +46964,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47006,14 +47006,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47051,11 +47051,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47119,19 +47119,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47160,11 +47160,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47193,11 +47193,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47359,11 +47359,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47395,12 +47395,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47440,10 +47440,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47463,10 +47463,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47486,10 +47486,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47523,11 +47523,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47542,12 +47542,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47738,7 +47738,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -47771,7 +47771,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -47804,7 +47804,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -48456,12 +48456,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48476,6 +48470,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48581,14 +48581,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48602,14 +48602,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48644,14 +48644,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48689,11 +48689,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48757,19 +48757,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48798,11 +48798,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48831,11 +48831,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48997,11 +48997,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49033,12 +49033,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49078,10 +49078,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49101,10 +49101,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49124,10 +49124,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49161,11 +49161,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49180,12 +49180,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49376,7 +49376,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="295" t="s">
+      <c r="D40" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="283"/>
@@ -49409,7 +49409,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="283"/>
@@ -49442,7 +49442,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="283"/>
@@ -50094,12 +50094,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50114,6 +50108,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50217,14 +50217,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50238,14 +50238,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50280,14 +50280,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50325,11 +50325,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50393,19 +50393,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50434,11 +50434,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50465,11 +50465,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>384</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50498,11 +50498,11 @@
       <c r="I16" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>385</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50664,11 +50664,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50700,12 +50700,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50745,10 +50745,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50768,10 +50768,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50791,10 +50791,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="302" t="s">
+      <c r="C32" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D32" s="303"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50828,11 +50828,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="293"/>
-      <c r="D34" s="293"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="291"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50847,12 +50847,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="288"/>
-      <c r="D35" s="288"/>
-      <c r="E35" s="289"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="287"/>
+      <c r="E35" s="288"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51043,7 +51043,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="295" t="s">
+      <c r="D41" s="301" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="283"/>
@@ -51076,7 +51076,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="295" t="s">
+      <c r="D42" s="301" t="s">
         <v>383</v>
       </c>
       <c r="E42" s="283"/>
@@ -51109,7 +51109,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="295" t="s">
+      <c r="D43" s="301" t="s">
         <v>274</v>
       </c>
       <c r="E43" s="283"/>
@@ -51508,11 +51508,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="294" t="s">
+      <c r="B64" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="294"/>
-      <c r="D64" s="294"/>
+      <c r="C64" s="300"/>
+      <c r="D64" s="300"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51529,12 +51529,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="287" t="s">
+      <c r="B65" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="288"/>
-      <c r="D65" s="288"/>
-      <c r="E65" s="289"/>
+      <c r="C65" s="287"/>
+      <c r="D65" s="287"/>
+      <c r="E65" s="288"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51626,7 +51626,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="283"/>
@@ -51659,10 +51659,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="295" t="s">
+      <c r="D69" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51692,10 +51692,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="297" t="s">
+      <c r="D70" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="296"/>
+      <c r="E70" s="302"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52147,6 +52147,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52162,18 +52174,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52279,14 +52279,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52300,14 +52300,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52342,14 +52342,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52387,11 +52387,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52455,19 +52455,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52496,11 +52496,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52527,11 +52527,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52693,11 +52693,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52729,12 +52729,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52774,10 +52774,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52797,10 +52797,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52820,10 +52820,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="302" t="s">
+      <c r="C31" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="303"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -52857,11 +52857,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="293" t="s">
+      <c r="B33" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -52876,12 +52876,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="287" t="s">
+      <c r="B34" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="288"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53378,11 +53378,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="294" t="s">
+      <c r="B58" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="294"/>
-      <c r="D58" s="294"/>
+      <c r="C58" s="300"/>
+      <c r="D58" s="300"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53399,12 +53399,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="287" t="s">
+      <c r="B59" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="288"/>
-      <c r="E59" s="289"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="287"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53496,7 +53496,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="295" t="s">
+      <c r="D62" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="283"/>
@@ -53529,10 +53529,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="295" t="s">
+      <c r="D63" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="302"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53562,10 +53562,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="297" t="s">
+      <c r="D64" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="296"/>
+      <c r="E64" s="302"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54017,12 +54017,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54033,13 +54034,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55056,6 +55056,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55072,22 +55088,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -56157,11 +56157,11 @@
       <c r="C4" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56178,11 +56178,11 @@
       <c r="C5" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56220,11 +56220,11 @@
       <c r="C7" s="282" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56262,11 +56262,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56330,19 +56330,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56371,11 +56371,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56404,11 +56404,11 @@
       <c r="I15" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="290" t="s">
+      <c r="J15" s="298" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56437,11 +56437,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="299" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56506,7 +56506,7 @@
       <c r="J18" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56539,7 +56539,7 @@
       <c r="J19" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="292"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="283"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56702,11 +56702,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56738,12 +56738,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56783,10 +56783,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56806,10 +56806,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56829,10 +56829,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -56866,11 +56866,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -56885,12 +56885,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="289"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57114,10 +57114,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="299" t="s">
+      <c r="D45" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="300"/>
+      <c r="E45" s="285"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57618,11 +57618,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57639,12 +57639,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57736,7 +57736,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -57769,10 +57769,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57802,10 +57802,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58257,20 +58257,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58287,6 +58273,20 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58393,14 +58393,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58414,14 +58414,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58456,14 +58456,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58501,11 +58501,11 @@
       <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58569,19 +58569,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58610,11 +58610,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58712,7 +58712,7 @@
       <c r="J17" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="292"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="283"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58745,7 +58745,7 @@
       <c r="J18" s="282" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="283"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -58939,11 +58939,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -58975,12 +58975,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="294"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59020,10 +59020,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="302" t="s">
+      <c r="C33" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="303"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59043,10 +59043,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="302" t="s">
+      <c r="C34" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="303"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59066,10 +59066,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="302" t="s">
+      <c r="C35" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="303"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59089,10 +59089,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="302" t="s">
+      <c r="C36" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="303"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59145,12 +59145,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="287" t="s">
+      <c r="B39" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="289"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59374,10 +59374,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="299" t="s">
+      <c r="D46" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="300"/>
+      <c r="E46" s="285"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -59845,11 +59845,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="294" t="s">
+      <c r="B69" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="294"/>
-      <c r="D69" s="294"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -59866,12 +59866,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="289"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="287"/>
+      <c r="E70" s="288"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -59963,7 +59963,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="295" t="s">
+      <c r="D73" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="283"/>
@@ -59996,10 +59996,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="296"/>
+      <c r="E74" s="302"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60029,10 +60029,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="297" t="s">
+      <c r="D75" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="296"/>
+      <c r="E75" s="302"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60484,6 +60484,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
@@ -60495,23 +60512,6 @@
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60617,14 +60617,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
       <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60638,14 +60638,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="301" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60680,14 +60680,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="283"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60722,14 +60722,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="283"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60793,19 +60793,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="295" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60834,11 +60834,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="298" t="s">
+      <c r="J14" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -60867,11 +60867,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61033,11 +61033,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61069,12 +61069,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="304" t="s">
+      <c r="B27" s="294" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61114,10 +61114,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61137,10 +61137,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="302" t="s">
+      <c r="C30" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="303"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61174,11 +61174,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61193,12 +61193,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="287" t="s">
+      <c r="B33" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="288"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61422,10 +61422,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="299" t="s">
+      <c r="D40" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="300"/>
+      <c r="E40" s="285"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -61891,11 +61891,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="294" t="s">
+      <c r="B63" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="294"/>
-      <c r="D63" s="294"/>
+      <c r="C63" s="300"/>
+      <c r="D63" s="300"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -61912,12 +61912,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="287" t="s">
+      <c r="B64" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="288"/>
-      <c r="D64" s="288"/>
-      <c r="E64" s="289"/>
+      <c r="C64" s="287"/>
+      <c r="D64" s="287"/>
+      <c r="E64" s="288"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62009,7 +62009,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="295" t="s">
+      <c r="D67" s="301" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="283"/>
@@ -62042,10 +62042,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="295" t="s">
+      <c r="D68" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="296"/>
+      <c r="E68" s="302"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62075,10 +62075,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="297" t="s">
+      <c r="D69" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="296"/>
+      <c r="E69" s="302"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62530,17 +62530,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62555,6 +62544,17 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957" firstSheet="5" activeTab="22"/>
+    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957" firstSheet="5" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="460">
   <si>
     <t>Description</t>
   </si>
@@ -3119,52 +3119,47 @@
     <xf numFmtId="49" fontId="35" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3197,16 +3192,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3234,21 +3219,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3261,23 +3231,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="17" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3336,9 +3336,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3348,16 +3347,31 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3374,20 +3388,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6698,13 +6698,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>61685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>244230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7052,69 +7052,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        "avatarlink":"trile.jpg",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
             <a:t>        "public_time":"12:12 PM 2015/01/05"</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -7174,23 +7115,8 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        "avatarlink":"dungnguyen.jpg",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
             <a:t>        "public_time":"12:12 PM 2015/01/05"</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -7922,13 +7848,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>61685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>244230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8242,9 +8168,13 @@
             </a:rPr>
             <a:t>        "description":"...",</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
@@ -8276,67 +8206,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        "avatarlink":"trile.jpg",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
             <a:t>        "public_time":"12:12 PM 2015/01/05"</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -18766,307 +18637,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="260" t="s">
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="261"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="242" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="263" t="s">
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="265"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="231"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="255" t="s">
+      <c r="B2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="237" t="s">
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="238"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="257" t="s">
+      <c r="L2" s="236"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="247" t="s">
         <v>389</v>
       </c>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="258"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="234" t="s">
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="232" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="235"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="234" t="s">
+      <c r="W2" s="233"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="234" t="s">
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="236"/>
+      <c r="AC2" s="233"/>
+      <c r="AD2" s="234"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="237" t="s">
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="238"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="242" t="s">
+      <c r="L3" s="236"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="245" t="s">
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="240" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="246"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="248">
+      <c r="W3" s="241"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="243">
         <v>42009</v>
       </c>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="251">
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="246">
         <v>42068</v>
       </c>
-      <c r="AC3" s="249"/>
-      <c r="AD3" s="250"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="245"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="264" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230" t="s">
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230" t="s">
+      <c r="G8" s="264"/>
+      <c r="H8" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230" t="s">
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230" t="s">
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="231">
+      <c r="B9" s="250">
         <v>42027</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="221" t="s">
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="253" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="222"/>
-      <c r="H9" s="223" t="s">
+      <c r="G9" s="254"/>
+      <c r="H9" s="255" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="219"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="224" t="s">
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="225"/>
-      <c r="M9" s="225"/>
-      <c r="N9" s="225"/>
-      <c r="O9" s="225"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="225"/>
-      <c r="R9" s="225"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="225"/>
-      <c r="U9" s="225"/>
-      <c r="V9" s="225"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="228"/>
-      <c r="Z9" s="228"/>
-      <c r="AA9" s="228"/>
-      <c r="AB9" s="228"/>
-      <c r="AC9" s="229"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="259"/>
+      <c r="S9" s="259"/>
+      <c r="T9" s="259"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="259"/>
+      <c r="W9" s="260"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="263"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="223"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="225"/>
-      <c r="U10" s="225"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="228"/>
-      <c r="Z10" s="228"/>
-      <c r="AA10" s="228"/>
-      <c r="AB10" s="228"/>
-      <c r="AC10" s="229"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="259"/>
+      <c r="U10" s="259"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="263"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="223"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="225"/>
-      <c r="U11" s="225"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="226"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="228"/>
-      <c r="Z11" s="228"/>
-      <c r="AA11" s="228"/>
-      <c r="AB11" s="228"/>
-      <c r="AC11" s="229"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="259"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="260"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="263"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="218"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="225"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="226"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="228"/>
-      <c r="Z12" s="228"/>
-      <c r="AA12" s="228"/>
-      <c r="AB12" s="228"/>
-      <c r="AC12" s="229"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="259"/>
+      <c r="U12" s="259"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="262"/>
+      <c r="Z12" s="262"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="263"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1">
       <c r="C13" s="140"/>
@@ -19101,11 +18972,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -19120,31 +19011,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19245,14 +19116,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -19266,14 +19137,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -19308,14 +19179,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -19353,11 +19224,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -19421,19 +19292,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -19462,11 +19333,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -19495,11 +19366,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -19528,9 +19399,9 @@
       <c r="I16" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="292"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -19559,9 +19430,9 @@
       <c r="I17" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="J17" s="292"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="291"/>
+      <c r="J17" s="300"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="299"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -19723,11 +19594,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -19759,12 +19630,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="305" t="s">
+      <c r="B29" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="295"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -19804,10 +19675,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -19827,10 +19698,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>2001</v>
       </c>
@@ -19850,10 +19721,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -19873,10 +19744,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>1002</v>
       </c>
@@ -19910,11 +19781,11 @@
     </row>
     <row r="36" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="294" t="s">
+      <c r="B36" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="294"/>
-      <c r="D36" s="294"/>
+      <c r="C36" s="292"/>
+      <c r="D36" s="292"/>
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85"/>
@@ -19929,12 +19800,12 @@
     </row>
     <row r="37" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="88"/>
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="289"/>
-      <c r="D37" s="289"/>
-      <c r="E37" s="290"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="144" t="s">
         <v>115</v>
       </c>
@@ -20446,11 +20317,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="295" t="s">
+      <c r="B60" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="295"/>
-      <c r="D60" s="295"/>
+      <c r="C60" s="301"/>
+      <c r="D60" s="301"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -20467,12 +20338,12 @@
     </row>
     <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="88"/>
-      <c r="B61" s="288" t="s">
+      <c r="B61" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="289"/>
-      <c r="D61" s="289"/>
-      <c r="E61" s="290"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="144" t="s">
         <v>115</v>
       </c>
@@ -20564,7 +20435,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="296" t="s">
+      <c r="D64" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="284"/>
@@ -20597,10 +20468,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="90"/>
       <c r="C65" s="95"/>
-      <c r="D65" s="296" t="s">
+      <c r="D65" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="297"/>
+      <c r="E65" s="303"/>
       <c r="F65" s="135" t="s">
         <v>205</v>
       </c>
@@ -20630,10 +20501,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="298" t="s">
+      <c r="D66" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="297"/>
+      <c r="E66" s="303"/>
       <c r="F66" s="135" t="s">
         <v>208</v>
       </c>
@@ -21085,11 +20956,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D68:E68"/>
@@ -21106,12 +20978,11 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -21217,14 +21088,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -21238,14 +21109,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -21280,14 +21151,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -21322,14 +21193,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="296" t="s">
+      <c r="C9" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -21393,19 +21264,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -21434,11 +21305,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -21467,11 +21338,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>450</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -21633,11 +21504,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -21652,12 +21523,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="295"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -21697,10 +21568,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="303" t="s">
+      <c r="C28" s="293" t="s">
         <v>437</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="294"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -21734,11 +21605,11 @@
     </row>
     <row r="30" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="85"/>
@@ -21753,12 +21624,12 @@
     </row>
     <row r="31" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="288" t="s">
+      <c r="B31" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="289"/>
-      <c r="D31" s="289"/>
-      <c r="E31" s="290"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="144" t="s">
         <v>115</v>
       </c>
@@ -21982,10 +21853,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="300" t="s">
+      <c r="D38" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="301"/>
+      <c r="E38" s="286"/>
       <c r="F38" s="78" t="s">
         <v>159</v>
       </c>
@@ -22607,6 +22478,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -22619,12 +22496,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22730,14 +22601,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -22751,14 +22622,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -22796,11 +22667,11 @@
       <c r="C7" s="283" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -22838,11 +22709,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -22906,19 +22777,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22947,11 +22818,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22980,11 +22851,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -23013,11 +22884,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -23078,7 +22949,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="283"/>
-      <c r="K18" s="293"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="284"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -23109,7 +22980,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="283"/>
-      <c r="K19" s="293"/>
+      <c r="K19" s="290"/>
       <c r="L19" s="284"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -23272,11 +23143,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -23308,12 +23179,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -23353,10 +23224,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -23376,10 +23247,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -23399,10 +23270,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -23422,10 +23293,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -23459,11 +23330,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="294" t="s">
+      <c r="B38" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="294"/>
-      <c r="D38" s="294"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -23478,12 +23349,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="289"/>
-      <c r="D39" s="289"/>
-      <c r="E39" s="290"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -23674,7 +23545,7 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="296" t="s">
+      <c r="D45" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="284"/>
@@ -23707,7 +23578,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="296" t="s">
+      <c r="D46" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="284"/>
@@ -23740,7 +23611,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="296" t="s">
+      <c r="D47" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E47" s="284"/>
@@ -24170,11 +24041,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="295" t="s">
+      <c r="B69" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="295"/>
-      <c r="D69" s="295"/>
+      <c r="C69" s="301"/>
+      <c r="D69" s="301"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -24191,12 +24062,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="288" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="290"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -24288,7 +24159,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="296" t="s">
+      <c r="D73" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="284"/>
@@ -24321,10 +24192,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="296" t="s">
+      <c r="D74" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="297"/>
+      <c r="E74" s="303"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -24354,10 +24225,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="298" t="s">
+      <c r="D75" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="297"/>
+      <c r="E75" s="303"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -24809,6 +24680,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -24825,20 +24710,6 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -24944,14 +24815,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -24965,14 +24836,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -25007,14 +24878,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -25052,11 +24923,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -25120,19 +24991,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25161,11 +25032,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25194,11 +25065,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -25227,11 +25098,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -25319,7 +25190,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="283"/>
-      <c r="K19" s="293"/>
+      <c r="K19" s="290"/>
       <c r="L19" s="284"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -25350,7 +25221,7 @@
         <v>325</v>
       </c>
       <c r="J20" s="283"/>
-      <c r="K20" s="293"/>
+      <c r="K20" s="290"/>
       <c r="L20" s="284"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
@@ -25513,11 +25384,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="302" t="s">
+      <c r="B30" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="82"/>
@@ -25549,12 +25420,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="305" t="s">
+      <c r="B32" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="305"/>
-      <c r="D32" s="305"/>
-      <c r="E32" s="305"/>
+      <c r="C32" s="295"/>
+      <c r="D32" s="295"/>
+      <c r="E32" s="295"/>
       <c r="F32" s="177"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
@@ -25594,10 +25465,10 @@
       <c r="B34" s="209">
         <v>1</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>200</v>
       </c>
@@ -25617,10 +25488,10 @@
       <c r="B35" s="209">
         <v>2</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -25640,10 +25511,10 @@
       <c r="B36" s="209">
         <v>3</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -25663,10 +25534,10 @@
       <c r="B37" s="209">
         <v>4</v>
       </c>
-      <c r="C37" s="303" t="s">
+      <c r="C37" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="294"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -25686,10 +25557,10 @@
       <c r="B38" s="209">
         <v>5</v>
       </c>
-      <c r="C38" s="303" t="s">
+      <c r="C38" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="304"/>
+      <c r="D38" s="294"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -25709,10 +25580,10 @@
       <c r="B39" s="209">
         <v>6</v>
       </c>
-      <c r="C39" s="303" t="s">
+      <c r="C39" s="293" t="s">
         <v>458</v>
       </c>
-      <c r="D39" s="304"/>
+      <c r="D39" s="294"/>
       <c r="E39" s="209">
         <v>403</v>
       </c>
@@ -25746,11 +25617,11 @@
     </row>
     <row r="41" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="69"/>
-      <c r="B41" s="294" t="s">
+      <c r="B41" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="294"/>
-      <c r="D41" s="294"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="292"/>
       <c r="E41" s="85"/>
       <c r="F41" s="86"/>
       <c r="G41" s="85"/>
@@ -25765,12 +25636,12 @@
     </row>
     <row r="42" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="88"/>
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="289"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="290"/>
+      <c r="C42" s="288"/>
+      <c r="D42" s="288"/>
+      <c r="E42" s="289"/>
       <c r="F42" s="144" t="s">
         <v>115</v>
       </c>
@@ -25961,7 +25832,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="296" t="s">
+      <c r="D48" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E48" s="284"/>
@@ -25994,7 +25865,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="296" t="s">
+      <c r="D49" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E49" s="284"/>
@@ -26027,7 +25898,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="95"/>
-      <c r="D50" s="296" t="s">
+      <c r="D50" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E50" s="284"/>
@@ -26519,11 +26390,11 @@
     </row>
     <row r="74" spans="1:15" ht="20" customHeight="1">
       <c r="A74" s="66"/>
-      <c r="B74" s="295" t="s">
+      <c r="B74" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="295"/>
-      <c r="D74" s="295"/>
+      <c r="C74" s="301"/>
+      <c r="D74" s="301"/>
       <c r="E74" s="66"/>
       <c r="F74" s="66"/>
       <c r="G74" s="66"/>
@@ -26540,12 +26411,12 @@
     </row>
     <row r="75" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A75" s="88"/>
-      <c r="B75" s="288" t="s">
+      <c r="B75" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="289"/>
-      <c r="D75" s="289"/>
-      <c r="E75" s="290"/>
+      <c r="C75" s="288"/>
+      <c r="D75" s="288"/>
+      <c r="E75" s="289"/>
       <c r="F75" s="144" t="s">
         <v>115</v>
       </c>
@@ -26637,7 +26508,7 @@
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
       <c r="C78" s="95"/>
-      <c r="D78" s="296" t="s">
+      <c r="D78" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="284"/>
@@ -26670,10 +26541,10 @@
       <c r="A79" s="66"/>
       <c r="B79" s="90"/>
       <c r="C79" s="95"/>
-      <c r="D79" s="296" t="s">
+      <c r="D79" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="297"/>
+      <c r="E79" s="303"/>
       <c r="F79" s="135" t="s">
         <v>205</v>
       </c>
@@ -26703,10 +26574,10 @@
       <c r="A80" s="66"/>
       <c r="B80" s="90"/>
       <c r="C80" s="95"/>
-      <c r="D80" s="298" t="s">
+      <c r="D80" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E80" s="297"/>
+      <c r="E80" s="303"/>
       <c r="F80" s="135" t="s">
         <v>208</v>
       </c>
@@ -27158,11 +27029,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -27179,17 +27056,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27295,14 +27166,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -27316,14 +27187,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -27358,14 +27229,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -27400,14 +27271,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="296" t="s">
+      <c r="C9" s="302" t="s">
         <v>459</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -27471,19 +27342,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27512,11 +27383,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27545,11 +27416,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27578,11 +27449,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27771,11 +27642,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -27807,12 +27678,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="305" t="s">
+      <c r="B29" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="295"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -27852,10 +27723,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -27875,10 +27746,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>2501</v>
       </c>
@@ -27898,10 +27769,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>1001</v>
       </c>
@@ -27921,10 +27792,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>9001</v>
       </c>
@@ -27944,10 +27815,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>458</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>403</v>
       </c>
@@ -27981,11 +27852,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="294" t="s">
+      <c r="B37" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -28000,12 +27871,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="288" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="289"/>
-      <c r="D38" s="289"/>
-      <c r="E38" s="290"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="144" t="s">
         <v>115</v>
       </c>
@@ -28502,11 +28373,11 @@
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="295" t="s">
+      <c r="B62" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="295"/>
-      <c r="D62" s="295"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="301"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -28523,12 +28394,12 @@
     </row>
     <row r="63" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="88"/>
-      <c r="B63" s="288" t="s">
+      <c r="B63" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="290"/>
+      <c r="C63" s="288"/>
+      <c r="D63" s="288"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="144" t="s">
         <v>115</v>
       </c>
@@ -28620,7 +28491,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="90"/>
       <c r="C66" s="95"/>
-      <c r="D66" s="296" t="s">
+      <c r="D66" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E66" s="284"/>
@@ -28653,10 +28524,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="296" t="s">
+      <c r="D67" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="297"/>
+      <c r="E67" s="303"/>
       <c r="F67" s="135" t="s">
         <v>205</v>
       </c>
@@ -28686,10 +28557,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="298" t="s">
+      <c r="D68" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E68" s="297"/>
+      <c r="E68" s="303"/>
       <c r="F68" s="135" t="s">
         <v>208</v>
       </c>
@@ -29141,11 +29012,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
@@ -29161,12 +29033,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29272,14 +29143,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -29293,14 +29164,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -29335,14 +29206,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -29380,11 +29251,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -29448,19 +29319,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29489,11 +29360,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29522,11 +29393,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29555,11 +29426,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29616,7 +29487,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="283"/>
-      <c r="K18" s="293"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="284"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -29779,11 +29650,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="302" t="s">
+      <c r="B28" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -29815,12 +29686,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="305" t="s">
+      <c r="B30" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="305"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="295"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -29860,10 +29731,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -29883,10 +29754,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>2001</v>
       </c>
@@ -29906,10 +29777,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -29929,10 +29800,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -29952,10 +29823,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -29975,10 +29846,10 @@
       <c r="B37" s="209">
         <v>6</v>
       </c>
-      <c r="C37" s="303" t="s">
+      <c r="C37" s="293" t="s">
         <v>458</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="294"/>
       <c r="E37" s="209">
         <v>403</v>
       </c>
@@ -30012,11 +29883,11 @@
     </row>
     <row r="39" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="69"/>
-      <c r="B39" s="294" t="s">
+      <c r="B39" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="294"/>
-      <c r="D39" s="294"/>
+      <c r="C39" s="292"/>
+      <c r="D39" s="292"/>
       <c r="E39" s="85"/>
       <c r="F39" s="86"/>
       <c r="G39" s="85"/>
@@ -30031,12 +29902,12 @@
     </row>
     <row r="40" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="88"/>
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="289"/>
-      <c r="D40" s="289"/>
-      <c r="E40" s="290"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="289"/>
       <c r="F40" s="144" t="s">
         <v>115</v>
       </c>
@@ -30227,7 +30098,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="296" t="s">
+      <c r="D46" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E46" s="284"/>
@@ -30260,7 +30131,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="296" t="s">
+      <c r="D47" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E47" s="284"/>
@@ -30752,11 +30623,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="295" t="s">
+      <c r="B71" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="295"/>
-      <c r="D71" s="295"/>
+      <c r="C71" s="301"/>
+      <c r="D71" s="301"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -30773,12 +30644,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="288" t="s">
+      <c r="B72" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="289"/>
-      <c r="D72" s="289"/>
-      <c r="E72" s="290"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -30870,7 +30741,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="296" t="s">
+      <c r="D75" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="284"/>
@@ -30903,10 +30774,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="296" t="s">
+      <c r="D76" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="297"/>
+      <c r="E76" s="303"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -30936,10 +30807,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="298" t="s">
+      <c r="D77" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="297"/>
+      <c r="E77" s="303"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -31391,12 +31262,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="B71:D71"/>
@@ -31413,14 +31286,12 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31529,14 +31400,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -31550,14 +31421,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -31592,14 +31463,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -31637,11 +31508,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -31705,19 +31576,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31746,11 +31617,11 @@
       <c r="I14" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31779,11 +31650,11 @@
       <c r="I15" s="164">
         <v>10</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31945,11 +31816,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -31981,12 +31852,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -32026,10 +31897,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -32049,10 +31920,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -32072,10 +31943,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -32109,11 +31980,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="294" t="s">
+      <c r="B33" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -32128,12 +31999,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="290"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="180" t="s">
         <v>115</v>
       </c>
@@ -32324,7 +32195,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="284"/>
@@ -32357,7 +32228,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="284"/>
@@ -32390,7 +32261,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="296" t="s">
+      <c r="D42" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="284"/>
@@ -32930,11 +32801,11 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="295" t="s">
+      <c r="B68" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="295"/>
-      <c r="D68" s="295"/>
+      <c r="C68" s="301"/>
+      <c r="D68" s="301"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -32951,12 +32822,12 @@
     </row>
     <row r="69" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A69" s="88"/>
-      <c r="B69" s="288" t="s">
+      <c r="B69" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="289"/>
-      <c r="D69" s="289"/>
-      <c r="E69" s="290"/>
+      <c r="C69" s="288"/>
+      <c r="D69" s="288"/>
+      <c r="E69" s="289"/>
       <c r="F69" s="188" t="s">
         <v>115</v>
       </c>
@@ -33048,7 +32919,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="90"/>
       <c r="C72" s="95"/>
-      <c r="D72" s="296" t="s">
+      <c r="D72" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="284"/>
@@ -33081,10 +32952,10 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="296" t="s">
+      <c r="D73" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="297"/>
+      <c r="E73" s="303"/>
       <c r="F73" s="135" t="s">
         <v>205</v>
       </c>
@@ -33114,10 +32985,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="298" t="s">
+      <c r="D74" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="297"/>
+      <c r="E74" s="303"/>
       <c r="F74" s="135" t="s">
         <v>208</v>
       </c>
@@ -33586,16 +33457,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
@@ -33612,6 +33473,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
@@ -33718,14 +33589,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -33739,14 +33610,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -33781,14 +33652,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -33826,11 +33697,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -33894,19 +33765,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33935,11 +33806,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34101,11 +33972,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
+      <c r="C24" s="292"/>
+      <c r="D24" s="292"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -34137,12 +34008,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="295"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -34182,10 +34053,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="303" t="s">
+      <c r="C28" s="293" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="294"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -34205,10 +34076,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -34242,11 +34113,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -34261,12 +34132,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="288" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="289"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="290"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="188" t="s">
         <v>115</v>
       </c>
@@ -34457,7 +34328,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="296" t="s">
+      <c r="D38" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="284"/>
@@ -34490,7 +34361,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="296" t="s">
+      <c r="D39" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="284"/>
@@ -34523,7 +34394,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="284"/>
@@ -35140,12 +35011,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B24:D24"/>
@@ -35158,6 +35023,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35176,10 +35047,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -35263,14 +35134,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -35284,14 +35155,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -35326,14 +35197,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -35371,11 +35242,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -35439,19 +35310,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35480,11 +35351,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35646,11 +35517,11 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
+      <c r="C24" s="292"/>
+      <c r="D24" s="292"/>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
@@ -35682,12 +35553,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="295"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="177"/>
       <c r="G26" s="177"/>
       <c r="H26" s="177"/>
@@ -35727,10 +35598,10 @@
       <c r="B28" s="209">
         <v>1</v>
       </c>
-      <c r="C28" s="303" t="s">
+      <c r="C28" s="293" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="304"/>
+      <c r="D28" s="294"/>
       <c r="E28" s="209">
         <v>200</v>
       </c>
@@ -35750,10 +35621,10 @@
       <c r="B29" s="209">
         <v>2</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>9001</v>
       </c>
@@ -35787,11 +35658,11 @@
     </row>
     <row r="31" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="294" t="s">
+      <c r="B31" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="85"/>
@@ -35806,12 +35677,12 @@
     </row>
     <row r="32" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="288" t="s">
+      <c r="B32" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="289"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="290"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
       <c r="F32" s="144" t="s">
         <v>115</v>
       </c>
@@ -36002,7 +35873,7 @@
       <c r="A38" s="66"/>
       <c r="B38" s="90"/>
       <c r="C38" s="100"/>
-      <c r="D38" s="296" t="s">
+      <c r="D38" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="284"/>
@@ -36035,7 +35906,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="296" t="s">
+      <c r="D39" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E39" s="284"/>
@@ -36068,7 +35939,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="284"/>
@@ -36128,20 +35999,20 @@
     </row>
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="145" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="E42" s="143"/>
       <c r="F42" s="135" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G42" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" s="136" t="s">
-        <v>123</v>
+        <v>339</v>
+      </c>
+      <c r="H42" s="167" t="s">
+        <v>176</v>
       </c>
       <c r="I42" s="80">
         <v>1</v>
@@ -36159,57 +36030,43 @@
     </row>
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="E43" s="143"/>
-      <c r="F43" s="135" t="s">
-        <v>341</v>
-      </c>
-      <c r="G43" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="H43" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="80">
-        <v>1</v>
-      </c>
-      <c r="J43" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="K43" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="L43" s="137"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="177"/>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
     </row>
     <row r="44" spans="1:15" ht="20" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="82"/>
+      <c r="B44" s="33" t="s">
+        <v>198</v>
+      </c>
       <c r="C44" s="91"/>
-      <c r="D44" s="176"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="84"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="178"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
       <c r="I44" s="98"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="177"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="82"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
     <row r="45" spans="1:15" ht="20" customHeight="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="33" t="s">
-        <v>198</v>
-      </c>
+      <c r="B45" s="82"/>
       <c r="C45" s="91"/>
       <c r="D45" s="84"/>
       <c r="E45" s="84"/>
@@ -36600,17 +36457,17 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-      <c r="K68" s="98"/>
-      <c r="L68" s="82"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
@@ -36650,47 +36507,24 @@
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-    </row>
-    <row r="72" spans="1:15" ht="20" customHeight="1">
-      <c r="A72" s="99"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C4:I4"/>
@@ -36703,6 +36537,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36808,14 +36648,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -36829,14 +36669,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -36871,14 +36711,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -36916,11 +36756,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -36984,19 +36824,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37025,11 +36865,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37058,11 +36898,11 @@
       <c r="I15" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>451</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37224,11 +37064,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -37260,12 +37100,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -37305,10 +37145,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -37328,10 +37168,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -37365,11 +37205,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="294" t="s">
+      <c r="B32" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
+      <c r="C32" s="292"/>
+      <c r="D32" s="292"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -37384,12 +37224,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="288" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="290"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="188" t="s">
         <v>115</v>
       </c>
@@ -37580,7 +37420,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="296" t="s">
+      <c r="D39" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="284"/>
@@ -37613,7 +37453,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="284"/>
@@ -37646,7 +37486,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="284"/>
@@ -38263,12 +38103,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
@@ -38282,6 +38116,12 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -38898,10 +38738,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -38985,14 +38825,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -39006,14 +38846,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -39048,14 +38888,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -39093,11 +38933,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -39161,19 +39001,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39202,11 +39042,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39235,11 +39075,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>366</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39401,11 +39241,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -39437,12 +39277,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -39482,10 +39322,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -39505,10 +39345,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>9001</v>
       </c>
@@ -39542,11 +39382,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="294" t="s">
+      <c r="B32" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
+      <c r="C32" s="292"/>
+      <c r="D32" s="292"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -39561,12 +39401,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="288" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="290"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -39757,7 +39597,7 @@
       <c r="A39" s="66"/>
       <c r="B39" s="90"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="296" t="s">
+      <c r="D39" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="284"/>
@@ -39790,7 +39630,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="284"/>
@@ -39823,7 +39663,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="284"/>
@@ -39883,20 +39723,20 @@
     </row>
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="157" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="153"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="145" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="143"/>
       <c r="F43" s="135" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G43" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" s="136" t="s">
-        <v>123</v>
+        <v>339</v>
+      </c>
+      <c r="H43" s="167" t="s">
+        <v>176</v>
       </c>
       <c r="I43" s="80">
         <v>1</v>
@@ -39914,57 +39754,43 @@
     </row>
     <row r="44" spans="1:15" ht="20" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="E44" s="143"/>
-      <c r="F44" s="135" t="s">
-        <v>341</v>
-      </c>
-      <c r="G44" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="H44" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="80">
-        <v>1</v>
-      </c>
-      <c r="J44" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="L44" s="137"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="177"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
     <row r="45" spans="1:15" ht="20" customHeight="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="82"/>
+      <c r="B45" s="33" t="s">
+        <v>198</v>
+      </c>
       <c r="C45" s="91"/>
-      <c r="D45" s="176"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="84"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="178"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
       <c r="I45" s="98"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="175"/>
-      <c r="L45" s="177"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="82"/>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="20" customHeight="1">
       <c r="A46" s="66"/>
-      <c r="B46" s="33" t="s">
-        <v>198</v>
-      </c>
+      <c r="B46" s="82"/>
       <c r="C46" s="91"/>
       <c r="D46" s="84"/>
       <c r="E46" s="84"/>
@@ -40355,17 +40181,17 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="98"/>
-      <c r="L69" s="82"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
@@ -40405,41 +40231,31 @@
       <c r="O71" s="66"/>
     </row>
     <row r="72" spans="1:15" ht="20" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
-      <c r="O72" s="66"/>
-    </row>
-    <row r="73" spans="1:15" ht="20" customHeight="1">
-      <c r="A73" s="99"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
@@ -40452,13 +40268,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -40564,14 +40373,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -40585,14 +40394,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -40630,11 +40439,11 @@
       <c r="C7" s="283" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -40672,11 +40481,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -40740,19 +40549,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40781,11 +40590,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40814,9 +40623,9 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="J15" s="300"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40845,11 +40654,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40943,7 +40752,7 @@
         <v>325</v>
       </c>
       <c r="J19" s="283"/>
-      <c r="K19" s="293"/>
+      <c r="K19" s="290"/>
       <c r="L19" s="284"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -41106,11 +40915,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -41142,12 +40951,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -41187,10 +40996,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -41210,10 +41019,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -41233,10 +41042,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>2501</v>
       </c>
@@ -41256,10 +41065,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>400</v>
       </c>
@@ -41279,10 +41088,10 @@
       <c r="B37" s="209">
         <v>5</v>
       </c>
-      <c r="C37" s="303" t="s">
+      <c r="C37" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="294"/>
       <c r="E37" s="209">
         <v>1001</v>
       </c>
@@ -41302,10 +41111,10 @@
       <c r="B38" s="209">
         <v>6</v>
       </c>
-      <c r="C38" s="303" t="s">
+      <c r="C38" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="304"/>
+      <c r="D38" s="294"/>
       <c r="E38" s="209">
         <v>9001</v>
       </c>
@@ -41339,11 +41148,11 @@
     </row>
     <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="294" t="s">
+      <c r="B40" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="294"/>
-      <c r="D40" s="294"/>
+      <c r="C40" s="292"/>
+      <c r="D40" s="292"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
       <c r="G40" s="85"/>
@@ -41358,12 +41167,12 @@
     </row>
     <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="88"/>
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="289"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="290"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="144" t="s">
         <v>115</v>
       </c>
@@ -41554,7 +41363,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="296" t="s">
+      <c r="D47" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="284"/>
@@ -41587,7 +41396,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="296" t="s">
+      <c r="D48" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E48" s="284"/>
@@ -41620,7 +41429,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="296" t="s">
+      <c r="D49" s="302" t="s">
         <v>393</v>
       </c>
       <c r="E49" s="284"/>
@@ -41653,7 +41462,7 @@
       <c r="A50" s="66"/>
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="296" t="s">
+      <c r="D50" s="302" t="s">
         <v>358</v>
       </c>
       <c r="E50" s="284"/>
@@ -42054,11 +41863,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="295" t="s">
+      <c r="B71" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="295"/>
-      <c r="D71" s="295"/>
+      <c r="C71" s="301"/>
+      <c r="D71" s="301"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -42075,12 +41884,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="288" t="s">
+      <c r="B72" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="289"/>
-      <c r="D72" s="289"/>
-      <c r="E72" s="290"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -42172,7 +41981,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="296" t="s">
+      <c r="D75" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="284"/>
@@ -42205,10 +42014,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="296" t="s">
+      <c r="D76" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="297"/>
+      <c r="E76" s="303"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -42238,10 +42047,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="298" t="s">
+      <c r="D77" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="297"/>
+      <c r="E77" s="303"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -42693,22 +42502,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -42725,6 +42518,22 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42745,7 +42554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
@@ -42830,14 +42639,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -42851,14 +42660,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -42893,14 +42702,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -42938,11 +42747,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -43006,19 +42815,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43047,11 +42856,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43080,11 +42889,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43113,11 +42922,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43174,7 +42983,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="283"/>
-      <c r="K18" s="293"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="284"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -43337,11 +43146,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="302" t="s">
+      <c r="B28" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -43373,12 +43182,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="305" t="s">
+      <c r="B30" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="305"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="295"/>
       <c r="F30" s="177"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
@@ -43418,10 +43227,10 @@
       <c r="B32" s="209">
         <v>1</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>442</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>200</v>
       </c>
@@ -43441,10 +43250,10 @@
       <c r="B33" s="209">
         <v>2</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>3001</v>
       </c>
@@ -43464,10 +43273,10 @@
       <c r="B34" s="209">
         <v>3</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -43487,10 +43296,10 @@
       <c r="B35" s="209">
         <v>4</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>1001</v>
       </c>
@@ -43510,10 +43319,10 @@
       <c r="B36" s="209">
         <v>5</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>9001</v>
       </c>
@@ -43533,10 +43342,10 @@
       <c r="B37" s="209">
         <v>6</v>
       </c>
-      <c r="C37" s="303" t="s">
+      <c r="C37" s="293" t="s">
         <v>458</v>
       </c>
-      <c r="D37" s="304"/>
+      <c r="D37" s="294"/>
       <c r="E37" s="209">
         <v>403</v>
       </c>
@@ -43570,11 +43379,11 @@
     </row>
     <row r="39" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="69"/>
-      <c r="B39" s="294" t="s">
+      <c r="B39" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="294"/>
-      <c r="D39" s="294"/>
+      <c r="C39" s="292"/>
+      <c r="D39" s="292"/>
       <c r="E39" s="85"/>
       <c r="F39" s="86"/>
       <c r="G39" s="85"/>
@@ -43589,12 +43398,12 @@
     </row>
     <row r="40" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="88"/>
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="289"/>
-      <c r="D40" s="289"/>
-      <c r="E40" s="290"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="289"/>
       <c r="F40" s="144" t="s">
         <v>115</v>
       </c>
@@ -43785,7 +43594,7 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="296" t="s">
+      <c r="D46" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E46" s="284"/>
@@ -43818,7 +43627,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="296" t="s">
+      <c r="D47" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E47" s="284"/>
@@ -43851,7 +43660,7 @@
       <c r="A48" s="66"/>
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="296" t="s">
+      <c r="D48" s="302" t="s">
         <v>393</v>
       </c>
       <c r="E48" s="284"/>
@@ -43884,7 +43693,7 @@
       <c r="A49" s="66"/>
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="296" t="s">
+      <c r="D49" s="302" t="s">
         <v>358</v>
       </c>
       <c r="E49" s="284"/>
@@ -44316,11 +44125,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="295" t="s">
+      <c r="B71" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="295"/>
-      <c r="D71" s="295"/>
+      <c r="C71" s="301"/>
+      <c r="D71" s="301"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -44337,12 +44146,12 @@
     </row>
     <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="88"/>
-      <c r="B72" s="288" t="s">
+      <c r="B72" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="289"/>
-      <c r="D72" s="289"/>
-      <c r="E72" s="290"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="144" t="s">
         <v>115</v>
       </c>
@@ -44434,7 +44243,7 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="296" t="s">
+      <c r="D75" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E75" s="284"/>
@@ -44467,10 +44276,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
-      <c r="D76" s="296" t="s">
+      <c r="D76" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="297"/>
+      <c r="E76" s="303"/>
       <c r="F76" s="135" t="s">
         <v>205</v>
       </c>
@@ -44500,10 +44309,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="298" t="s">
+      <c r="D77" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="297"/>
+      <c r="E77" s="303"/>
       <c r="F77" s="135" t="s">
         <v>208</v>
       </c>
@@ -44955,22 +44764,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
@@ -44987,6 +44780,22 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -45007,7 +44816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -45090,14 +44899,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -45111,14 +44920,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -45153,14 +44962,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -45195,14 +45004,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="296" t="s">
+      <c r="C9" s="302" t="s">
         <v>459</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -45266,19 +45075,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45307,11 +45116,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45340,11 +45149,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45373,11 +45182,11 @@
       <c r="I16" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45566,11 +45375,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -45602,12 +45411,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="305" t="s">
+      <c r="B29" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="295"/>
       <c r="F29" s="177"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
@@ -45647,10 +45456,10 @@
       <c r="B31" s="209">
         <v>1</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>443</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>200</v>
       </c>
@@ -45670,10 +45479,10 @@
       <c r="B32" s="209">
         <v>2</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>364</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>3001</v>
       </c>
@@ -45693,10 +45502,10 @@
       <c r="B33" s="209">
         <v>3</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>400</v>
       </c>
@@ -45716,10 +45525,10 @@
       <c r="B34" s="209">
         <v>4</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>1001</v>
       </c>
@@ -45739,10 +45548,10 @@
       <c r="B35" s="209">
         <v>5</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>9001</v>
       </c>
@@ -45762,10 +45571,10 @@
       <c r="B36" s="209">
         <v>6</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>458</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>403</v>
       </c>
@@ -45799,11 +45608,11 @@
     </row>
     <row r="38" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="294" t="s">
+      <c r="B38" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="294"/>
-      <c r="D38" s="294"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="85"/>
@@ -45818,12 +45627,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="289"/>
-      <c r="D39" s="289"/>
-      <c r="E39" s="290"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="158" t="s">
         <v>115</v>
       </c>
@@ -46320,11 +46129,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="295" t="s">
+      <c r="B63" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="295"/>
-      <c r="D63" s="295"/>
+      <c r="C63" s="301"/>
+      <c r="D63" s="301"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -46341,12 +46150,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="288" t="s">
+      <c r="B64" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="289"/>
-      <c r="D64" s="289"/>
-      <c r="E64" s="290"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="288"/>
+      <c r="E64" s="289"/>
       <c r="F64" s="158" t="s">
         <v>115</v>
       </c>
@@ -46438,7 +46247,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="296" t="s">
+      <c r="D67" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="284"/>
@@ -46471,10 +46280,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="296" t="s">
+      <c r="D68" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="297"/>
+      <c r="E68" s="303"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -46504,10 +46313,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="298" t="s">
+      <c r="D69" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="297"/>
+      <c r="E69" s="303"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -46959,6 +46768,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -46972,20 +46795,6 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -47091,14 +46900,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -47112,14 +46921,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -47154,14 +46963,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -47199,11 +47008,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -47267,19 +47076,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47308,11 +47117,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47341,11 +47150,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47507,11 +47316,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -47543,12 +47352,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -47588,10 +47397,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -47611,10 +47420,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -47634,10 +47443,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -47671,11 +47480,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="294" t="s">
+      <c r="B33" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -47690,12 +47499,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="290"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -47886,7 +47695,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="284"/>
@@ -47919,7 +47728,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="284"/>
@@ -47952,7 +47761,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="296" t="s">
+      <c r="D42" s="302" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="284"/>
@@ -48604,12 +48413,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D40:E40"/>
@@ -48624,6 +48427,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48729,14 +48538,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -48750,14 +48559,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -48792,14 +48601,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -48837,11 +48646,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -48905,19 +48714,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48946,11 +48755,11 @@
       <c r="I14" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48979,11 +48788,11 @@
       <c r="I15" s="164">
         <v>11</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49145,11 +48954,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -49181,12 +48990,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -49226,10 +49035,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -49249,10 +49058,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -49272,10 +49081,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -49309,11 +49118,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="294" t="s">
+      <c r="B33" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -49328,12 +49137,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="290"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="158" t="s">
         <v>115</v>
       </c>
@@ -49524,7 +49333,7 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="296" t="s">
+      <c r="D40" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="284"/>
@@ -49557,7 +49366,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>326</v>
       </c>
       <c r="E41" s="284"/>
@@ -49590,7 +49399,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="296" t="s">
+      <c r="D42" s="302" t="s">
         <v>393</v>
       </c>
       <c r="E42" s="284"/>
@@ -50242,12 +50051,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
@@ -50262,6 +50065,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -50365,14 +50174,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -50386,14 +50195,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -50428,14 +50237,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -50473,11 +50282,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -50541,19 +50350,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50582,11 +50391,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50613,11 +50422,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>384</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50646,11 +50455,11 @@
       <c r="I16" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>385</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50812,11 +50621,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
@@ -50848,12 +50657,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="305" t="s">
+      <c r="B28" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
+      <c r="C28" s="295"/>
+      <c r="D28" s="295"/>
+      <c r="E28" s="295"/>
       <c r="F28" s="177"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
@@ -50893,10 +50702,10 @@
       <c r="B30" s="209">
         <v>1</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>200</v>
       </c>
@@ -50916,10 +50725,10 @@
       <c r="B31" s="209">
         <v>2</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>1002</v>
       </c>
@@ -50939,10 +50748,10 @@
       <c r="B32" s="209">
         <v>3</v>
       </c>
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="209">
         <v>9001</v>
       </c>
@@ -50976,11 +50785,11 @@
     </row>
     <row r="34" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="69"/>
-      <c r="B34" s="294" t="s">
+      <c r="B34" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="292"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
       <c r="G34" s="85"/>
@@ -50995,12 +50804,12 @@
     </row>
     <row r="35" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="88"/>
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="289"/>
-      <c r="D35" s="289"/>
-      <c r="E35" s="290"/>
+      <c r="C35" s="288"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="289"/>
       <c r="F35" s="188" t="s">
         <v>115</v>
       </c>
@@ -51191,7 +51000,7 @@
       <c r="A41" s="66"/>
       <c r="B41" s="90"/>
       <c r="C41" s="100"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="302" t="s">
         <v>185</v>
       </c>
       <c r="E41" s="284"/>
@@ -51224,7 +51033,7 @@
       <c r="A42" s="66"/>
       <c r="B42" s="90"/>
       <c r="C42" s="100"/>
-      <c r="D42" s="296" t="s">
+      <c r="D42" s="302" t="s">
         <v>383</v>
       </c>
       <c r="E42" s="284"/>
@@ -51257,7 +51066,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="90"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="296" t="s">
+      <c r="D43" s="302" t="s">
         <v>274</v>
       </c>
       <c r="E43" s="284"/>
@@ -51656,11 +51465,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="295" t="s">
+      <c r="B64" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="295"/>
-      <c r="D64" s="295"/>
+      <c r="C64" s="301"/>
+      <c r="D64" s="301"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -51677,12 +51486,12 @@
     </row>
     <row r="65" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="88"/>
-      <c r="B65" s="288" t="s">
+      <c r="B65" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="289"/>
-      <c r="D65" s="289"/>
-      <c r="E65" s="290"/>
+      <c r="C65" s="288"/>
+      <c r="D65" s="288"/>
+      <c r="E65" s="289"/>
       <c r="F65" s="188" t="s">
         <v>115</v>
       </c>
@@ -51774,7 +51583,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="296" t="s">
+      <c r="D68" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="284"/>
@@ -51807,10 +51616,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="296" t="s">
+      <c r="D69" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="297"/>
+      <c r="E69" s="303"/>
       <c r="F69" s="135" t="s">
         <v>205</v>
       </c>
@@ -51840,10 +51649,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="90"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="298" t="s">
+      <c r="D70" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="297"/>
+      <c r="E70" s="303"/>
       <c r="F70" s="135" t="s">
         <v>208</v>
       </c>
@@ -52295,6 +52104,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -52310,18 +52131,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -52427,14 +52236,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -52448,14 +52257,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -52490,14 +52299,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -52535,11 +52344,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52603,19 +52412,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52644,11 +52453,11 @@
       <c r="I14" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52675,11 +52484,11 @@
         <v>64</v>
       </c>
       <c r="I15" s="164"/>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52841,11 +52650,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -52877,12 +52686,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -52922,10 +52731,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -52945,10 +52754,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>1001</v>
       </c>
@@ -52968,10 +52777,10 @@
       <c r="B31" s="209">
         <v>3</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="293" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="304"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="209">
         <v>9001</v>
       </c>
@@ -53005,11 +52814,11 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="69"/>
-      <c r="B33" s="294" t="s">
+      <c r="B33" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="85"/>
@@ -53024,12 +52833,12 @@
     </row>
     <row r="34" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="290"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="188" t="s">
         <v>115</v>
       </c>
@@ -53526,11 +53335,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="295" t="s">
+      <c r="B58" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="295"/>
-      <c r="D58" s="295"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -53547,12 +53356,12 @@
     </row>
     <row r="59" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="88"/>
-      <c r="B59" s="288" t="s">
+      <c r="B59" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="289"/>
-      <c r="D59" s="289"/>
-      <c r="E59" s="290"/>
+      <c r="C59" s="288"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="289"/>
       <c r="F59" s="188" t="s">
         <v>115</v>
       </c>
@@ -53644,7 +53453,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="90"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="296" t="s">
+      <c r="D62" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="284"/>
@@ -53677,10 +53486,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="90"/>
       <c r="C63" s="95"/>
-      <c r="D63" s="296" t="s">
+      <c r="D63" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="297"/>
+      <c r="E63" s="303"/>
       <c r="F63" s="135" t="s">
         <v>205</v>
       </c>
@@ -53710,10 +53519,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="90"/>
       <c r="C64" s="95"/>
-      <c r="D64" s="298" t="s">
+      <c r="D64" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="297"/>
+      <c r="E64" s="303"/>
       <c r="F64" s="135" t="s">
         <v>208</v>
       </c>
@@ -54165,12 +53974,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
@@ -54181,13 +53991,12 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" location="'Response Code'!A1" display="Cases may occur refer sheet [Response Code] for more detail"/>
@@ -55204,6 +55013,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -55220,22 +55045,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -56325,11 +56134,11 @@
       <c r="C4" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -56346,11 +56155,11 @@
       <c r="C5" s="283" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -56388,11 +56197,11 @@
       <c r="C7" s="283" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -56430,11 +56239,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -56498,19 +56307,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56539,11 +56348,11 @@
       <c r="I14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56572,11 +56381,11 @@
       <c r="I15" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="291" t="s">
+      <c r="J15" s="299" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56605,11 +56414,11 @@
       <c r="I16" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="300" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56674,7 +56483,7 @@
       <c r="J18" s="283" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="293"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="284"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -56707,7 +56516,7 @@
       <c r="J19" s="283" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="293"/>
+      <c r="K19" s="290"/>
       <c r="L19" s="284"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
@@ -56870,11 +56679,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -56906,12 +56715,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -56951,10 +56760,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>201</v>
       </c>
@@ -56974,10 +56783,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>400</v>
       </c>
@@ -56997,10 +56806,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -57034,11 +56843,11 @@
     </row>
     <row r="37" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="294" t="s">
+      <c r="B37" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
       <c r="E37" s="85"/>
       <c r="F37" s="86"/>
       <c r="G37" s="85"/>
@@ -57053,12 +56862,12 @@
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="88"/>
-      <c r="B38" s="288" t="s">
+      <c r="B38" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="289"/>
-      <c r="D38" s="289"/>
-      <c r="E38" s="290"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="76" t="s">
         <v>115</v>
       </c>
@@ -57282,10 +57091,10 @@
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="300" t="s">
+      <c r="D45" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="301"/>
+      <c r="E45" s="286"/>
       <c r="F45" s="78" t="s">
         <v>159</v>
       </c>
@@ -57786,11 +57595,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="295" t="s">
+      <c r="B69" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="295"/>
-      <c r="D69" s="295"/>
+      <c r="C69" s="301"/>
+      <c r="D69" s="301"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -57807,12 +57616,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="288" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="290"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="76" t="s">
         <v>115</v>
       </c>
@@ -57904,7 +57713,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="296" t="s">
+      <c r="D73" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="284"/>
@@ -57937,10 +57746,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="296" t="s">
+      <c r="D74" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="297"/>
+      <c r="E74" s="303"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -57970,10 +57779,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="298" t="s">
+      <c r="D75" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="297"/>
+      <c r="E75" s="303"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -58425,20 +58234,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B38:E38"/>
@@ -58455,6 +58250,20 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58561,14 +58370,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -58582,14 +58391,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -58624,14 +58433,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -58669,11 +58478,11 @@
       <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -58737,19 +58546,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58778,11 +58587,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58880,7 +58689,7 @@
       <c r="J17" s="283" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="293"/>
+      <c r="K17" s="290"/>
       <c r="L17" s="284"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -58913,7 +58722,7 @@
       <c r="J18" s="283" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="293"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="284"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -59107,11 +58916,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
@@ -59143,12 +58952,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="305"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="177"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
@@ -59188,10 +58997,10 @@
       <c r="B33" s="209">
         <v>1</v>
       </c>
-      <c r="C33" s="303" t="s">
+      <c r="C33" s="293" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="304"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="209">
         <v>200</v>
       </c>
@@ -59211,10 +59020,10 @@
       <c r="B34" s="209">
         <v>2</v>
       </c>
-      <c r="C34" s="303" t="s">
+      <c r="C34" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="304"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="209">
         <v>2001</v>
       </c>
@@ -59234,10 +59043,10 @@
       <c r="B35" s="209">
         <v>3</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="293" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="304"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="209">
         <v>400</v>
       </c>
@@ -59257,10 +59066,10 @@
       <c r="B36" s="209">
         <v>4</v>
       </c>
-      <c r="C36" s="303" t="s">
+      <c r="C36" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="304"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="209">
         <v>1001</v>
       </c>
@@ -59313,12 +59122,12 @@
     </row>
     <row r="39" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="289"/>
-      <c r="D39" s="289"/>
-      <c r="E39" s="290"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="144" t="s">
         <v>115</v>
       </c>
@@ -59542,10 +59351,10 @@
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="300" t="s">
+      <c r="D46" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="301"/>
+      <c r="E46" s="286"/>
       <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
@@ -60013,11 +59822,11 @@
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="295" t="s">
+      <c r="B69" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="295"/>
-      <c r="D69" s="295"/>
+      <c r="C69" s="301"/>
+      <c r="D69" s="301"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -60034,12 +59843,12 @@
     </row>
     <row r="70" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="88"/>
-      <c r="B70" s="288" t="s">
+      <c r="B70" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="290"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="144" t="s">
         <v>115</v>
       </c>
@@ -60131,7 +59940,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="90"/>
       <c r="C73" s="95"/>
-      <c r="D73" s="296" t="s">
+      <c r="D73" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="284"/>
@@ -60164,10 +59973,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="90"/>
       <c r="C74" s="95"/>
-      <c r="D74" s="296" t="s">
+      <c r="D74" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="297"/>
+      <c r="E74" s="303"/>
       <c r="F74" s="135" t="s">
         <v>205</v>
       </c>
@@ -60197,10 +60006,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="298" t="s">
+      <c r="D75" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="297"/>
+      <c r="E75" s="303"/>
       <c r="F75" s="135" t="s">
         <v>208</v>
       </c>
@@ -60652,6 +60461,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
@@ -60663,23 +60489,6 @@
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -60785,14 +60594,14 @@
       <c r="B4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="302" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="284"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -60806,14 +60615,14 @@
       <c r="B5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="302" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="284"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -60848,14 +60657,14 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="284"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -60890,14 +60699,14 @@
       <c r="B9" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="296" t="s">
+      <c r="C9" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="284"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -60961,19 +60770,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="297"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -61002,11 +60811,11 @@
       <c r="I14" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -61035,11 +60844,11 @@
       <c r="I15" s="164">
         <v>123</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="300" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -61201,11 +61010,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
@@ -61237,12 +61046,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="295" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="177"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
@@ -61282,10 +61091,10 @@
       <c r="B29" s="209">
         <v>1</v>
       </c>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="293" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="304"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="209">
         <v>200</v>
       </c>
@@ -61305,10 +61114,10 @@
       <c r="B30" s="209">
         <v>2</v>
       </c>
-      <c r="C30" s="303" t="s">
+      <c r="C30" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="304"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="209">
         <v>2001</v>
       </c>
@@ -61342,11 +61151,11 @@
     </row>
     <row r="32" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="69"/>
-      <c r="B32" s="294" t="s">
+      <c r="B32" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
+      <c r="C32" s="292"/>
+      <c r="D32" s="292"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="85"/>
@@ -61361,12 +61170,12 @@
     </row>
     <row r="33" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="288" t="s">
+      <c r="B33" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="290"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
       <c r="F33" s="144" t="s">
         <v>115</v>
       </c>
@@ -61590,10 +61399,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="90"/>
       <c r="C40" s="100"/>
-      <c r="D40" s="300" t="s">
+      <c r="D40" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="301"/>
+      <c r="E40" s="286"/>
       <c r="F40" s="78" t="s">
         <v>159</v>
       </c>
@@ -62059,11 +61868,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="295" t="s">
+      <c r="B63" s="301" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="295"/>
-      <c r="D63" s="295"/>
+      <c r="C63" s="301"/>
+      <c r="D63" s="301"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -62080,12 +61889,12 @@
     </row>
     <row r="64" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="88"/>
-      <c r="B64" s="288" t="s">
+      <c r="B64" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="289"/>
-      <c r="D64" s="289"/>
-      <c r="E64" s="290"/>
+      <c r="C64" s="288"/>
+      <c r="D64" s="288"/>
+      <c r="E64" s="289"/>
       <c r="F64" s="144" t="s">
         <v>115</v>
       </c>
@@ -62177,7 +61986,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="90"/>
       <c r="C67" s="95"/>
-      <c r="D67" s="296" t="s">
+      <c r="D67" s="302" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="284"/>
@@ -62210,10 +62019,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="90"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="296" t="s">
+      <c r="D68" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="297"/>
+      <c r="E68" s="303"/>
       <c r="F68" s="135" t="s">
         <v>205</v>
       </c>
@@ -62243,10 +62052,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="90"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="298" t="s">
+      <c r="D69" s="304" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="297"/>
+      <c r="E69" s="303"/>
       <c r="F69" s="135" t="s">
         <v>208</v>
       </c>
@@ -62698,17 +62507,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:E33"/>
@@ -62723,6 +62521,17 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="300" yWindow="60" windowWidth="36500" windowHeight="17220" tabRatio="957" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="460">
   <si>
     <t>Description</t>
   </si>
@@ -2072,7 +2072,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="520">
+  <cellStyleXfs count="522">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2354,6 +2354,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3393,7 +3395,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="520">
+  <cellStyles count="522">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3838,6 +3840,8 @@
     <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7018,11 +7022,6 @@
             </a:rPr>
             <a:t>        "description":"...",</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7043,6 +7042,38 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        "create_time":"12:10 PM 2015/01/05",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" b="0">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -7107,6 +7138,15 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>        "description":"...",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        "create_time":"12:10 PM 2015/01/05",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8168,15 +8208,6 @@
             </a:rPr>
             <a:t>        "description":"...",</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -8206,6 +8237,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
+            <a:t>        "create_time":"12:10 PM 2015/01/05",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>        "public_time":"12:12 PM 2015/01/05"</a:t>
           </a:r>
         </a:p>
@@ -8269,7 +8340,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        "content":"dungnguyen.jpg",</a:t>
+            <a:t>        "create_time":"12:10 PM 2015/01/05",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8466,13 +8537,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8803,13 +8874,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24730,8 +24801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B38"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -29010,7 +29081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:B36"/>
     </sheetView>
   </sheetViews>
@@ -31243,7 +31314,7 @@
   </sheetPr>
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -34977,7 +35048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -40214,10 +40285,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -40929,7 +41000,7 @@
       </c>
       <c r="D33" s="304"/>
       <c r="E33" s="209">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F33" s="82"/>
       <c r="G33" s="82"/>
@@ -40994,11 +41065,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="303" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="D36" s="304"/>
       <c r="E36" s="209">
-        <v>400</v>
+        <v>3001</v>
       </c>
       <c r="F36" s="82"/>
       <c r="G36" s="82"/>
@@ -41017,11 +41088,11 @@
         <v>5</v>
       </c>
       <c r="C37" s="303" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D37" s="304"/>
       <c r="E37" s="209">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
@@ -41040,11 +41111,11 @@
         <v>6</v>
       </c>
       <c r="C38" s="303" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D38" s="304"/>
       <c r="E38" s="209">
-        <v>9001</v>
+        <v>1001</v>
       </c>
       <c r="F38" s="82"/>
       <c r="G38" s="82"/>
@@ -41059,10 +41130,16 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="207"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="206"/>
+      <c r="B39" s="209">
+        <v>7</v>
+      </c>
+      <c r="C39" s="303" t="s">
+        <v>407</v>
+      </c>
+      <c r="D39" s="304"/>
+      <c r="E39" s="209">
+        <v>9001</v>
+      </c>
       <c r="F39" s="82"/>
       <c r="G39" s="82"/>
       <c r="H39" s="82"/>
@@ -41074,114 +41151,100 @@
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
     </row>
-    <row r="40" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="294" t="s">
+    <row r="40" spans="1:15" ht="20" customHeight="1">
+      <c r="A40" s="66"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+    </row>
+    <row r="41" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="294"/>
-      <c r="D40" s="294"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-    </row>
-    <row r="41" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
-      <c r="A41" s="88"/>
-      <c r="B41" s="288" t="s">
+      <c r="C41" s="294"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+    </row>
+    <row r="42" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A42" s="88"/>
+      <c r="B42" s="288" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="289"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="144" t="s">
+      <c r="C42" s="289"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="144" t="s">
+      <c r="G42" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="144" t="s">
+      <c r="H42" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="I41" s="166" t="s">
+      <c r="I42" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="J41" s="144" t="s">
+      <c r="J42" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="K41" s="144" t="s">
+      <c r="K42" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="144" t="s">
+      <c r="L42" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-    </row>
-    <row r="42" spans="1:15" ht="20" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="79"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
     </row>
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="94"/>
+      <c r="B43" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="92"/>
-      <c r="F43" s="78" t="s">
-        <v>177</v>
+      <c r="F43" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="G43" s="80" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="80">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="I43" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="J43" s="80" t="s">
         <v>128</v>
       </c>
       <c r="K43" s="80" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L43" s="79"/>
       <c r="M43" s="66"/>
@@ -41191,16 +41254,16 @@
     <row r="44" spans="1:15" ht="20" customHeight="1">
       <c r="A44" s="66"/>
       <c r="B44" s="90"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="283" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="284"/>
+      <c r="C44" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="78" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G44" s="80" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H44" s="80" t="s">
         <v>176</v>
@@ -41212,11 +41275,9 @@
         <v>128</v>
       </c>
       <c r="K44" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="L44" s="79" t="s">
-        <v>122</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="L44" s="79"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
@@ -41224,19 +41285,19 @@
     <row r="45" spans="1:15" ht="20" customHeight="1">
       <c r="A45" s="66"/>
       <c r="B45" s="90"/>
-      <c r="C45" s="97"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="283" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" s="284"/>
       <c r="F45" s="78" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="I45" s="80">
         <v>1</v>
@@ -41245,10 +41306,10 @@
         <v>128</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L45" s="79" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
@@ -41257,19 +41318,19 @@
     <row r="46" spans="1:15" ht="20" customHeight="1">
       <c r="A46" s="66"/>
       <c r="B46" s="90"/>
-      <c r="C46" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="283" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="284"/>
       <c r="F46" s="78" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G46" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="80" t="s">
         <v>128</v>
-      </c>
-      <c r="H46" s="80" t="s">
-        <v>176</v>
       </c>
       <c r="I46" s="80">
         <v>1</v>
@@ -41278,10 +41339,10 @@
         <v>128</v>
       </c>
       <c r="K46" s="80" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L46" s="79" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
@@ -41290,16 +41351,16 @@
     <row r="47" spans="1:15" ht="20" customHeight="1">
       <c r="A47" s="66"/>
       <c r="B47" s="90"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="296" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="284"/>
-      <c r="F47" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="136" t="s">
-        <v>124</v>
+      <c r="C47" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="H47" s="80" t="s">
         <v>176</v>
@@ -41311,10 +41372,10 @@
         <v>128</v>
       </c>
       <c r="K47" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" s="137" t="s">
-        <v>366</v>
+        <v>136</v>
+      </c>
+      <c r="L47" s="79" t="s">
+        <v>192</v>
       </c>
       <c r="M47" s="66"/>
       <c r="N47" s="66"/>
@@ -41325,11 +41386,11 @@
       <c r="B48" s="90"/>
       <c r="C48" s="100"/>
       <c r="D48" s="296" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="E48" s="284"/>
       <c r="F48" s="135" t="s">
-        <v>327</v>
+        <v>187</v>
       </c>
       <c r="G48" s="136" t="s">
         <v>124</v>
@@ -41347,7 +41408,7 @@
         <v>123</v>
       </c>
       <c r="L48" s="137" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M48" s="66"/>
       <c r="N48" s="66"/>
@@ -41358,17 +41419,17 @@
       <c r="B49" s="90"/>
       <c r="C49" s="100"/>
       <c r="D49" s="296" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="E49" s="284"/>
       <c r="F49" s="135" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="G49" s="136" t="s">
         <v>124</v>
       </c>
       <c r="H49" s="80" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="I49" s="80">
         <v>1</v>
@@ -41379,8 +41440,8 @@
       <c r="K49" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="L49" s="194" t="s">
-        <v>391</v>
+      <c r="L49" s="137" t="s">
+        <v>328</v>
       </c>
       <c r="M49" s="66"/>
       <c r="N49" s="66"/>
@@ -41391,29 +41452,29 @@
       <c r="B50" s="90"/>
       <c r="C50" s="100"/>
       <c r="D50" s="296" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="E50" s="284"/>
       <c r="F50" s="135" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="G50" s="136" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="80" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="I50" s="80">
         <v>1</v>
       </c>
       <c r="J50" s="80" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K50" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="L50" s="137" t="s">
-        <v>360</v>
+      <c r="L50" s="194" t="s">
+        <v>391</v>
       </c>
       <c r="M50" s="66"/>
       <c r="N50" s="66"/>
@@ -41422,47 +41483,49 @@
     <row r="51" spans="1:15" ht="20" customHeight="1">
       <c r="A51" s="66"/>
       <c r="B51" s="90"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="145" t="s">
-        <v>323</v>
-      </c>
-      <c r="E51" s="143"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="296" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="284"/>
       <c r="F51" s="135" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G51" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" s="167" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="80" t="s">
         <v>176</v>
       </c>
       <c r="I51" s="80">
         <v>1</v>
       </c>
-      <c r="J51" s="136" t="s">
+      <c r="J51" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="L51" s="137"/>
+      <c r="L51" s="137" t="s">
+        <v>360</v>
+      </c>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
       <c r="O51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="145" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E52" s="143"/>
       <c r="F52" s="135" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G52" s="136" t="s">
-        <v>339</v>
+        <v>160</v>
       </c>
       <c r="H52" s="167" t="s">
         <v>176</v>
@@ -41483,43 +41546,57 @@
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="177"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="145" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="143"/>
+      <c r="F53" s="135" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="H53" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="80">
+        <v>1</v>
+      </c>
+      <c r="J53" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="137"/>
       <c r="M53" s="66"/>
       <c r="N53" s="66"/>
       <c r="O53" s="66"/>
     </row>
     <row r="54" spans="1:15" ht="20" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="33" t="s">
-        <v>198</v>
-      </c>
+      <c r="B54" s="82"/>
       <c r="C54" s="91"/>
-      <c r="D54" s="84"/>
+      <c r="D54" s="176"/>
       <c r="E54" s="84"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="178"/>
       <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="82"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="177"/>
       <c r="M54" s="66"/>
       <c r="N54" s="66"/>
       <c r="O54" s="66"/>
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="82"/>
+      <c r="B55" s="33" t="s">
+        <v>198</v>
+      </c>
       <c r="C55" s="91"/>
       <c r="D55" s="84"/>
       <c r="E55" s="84"/>
@@ -41774,131 +41851,117 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="82"/>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="295" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="295"/>
-      <c r="D71" s="295"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
       <c r="H71" s="66"/>
       <c r="I71" s="66"/>
-      <c r="J71" s="66" t="s">
-        <v>128</v>
-      </c>
+      <c r="J71" s="66"/>
       <c r="K71" s="66"/>
       <c r="L71" s="66"/>
       <c r="M71" s="66"/>
       <c r="N71" s="66"/>
       <c r="O71" s="66"/>
     </row>
-    <row r="72" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="288" t="s">
+    <row r="72" spans="1:15" ht="20" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="295" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="295"/>
+      <c r="D72" s="295"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="66"/>
+    </row>
+    <row r="73" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A73" s="88"/>
+      <c r="B73" s="288" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="289"/>
-      <c r="D72" s="289"/>
-      <c r="E72" s="290"/>
-      <c r="F72" s="144" t="s">
+      <c r="C73" s="289"/>
+      <c r="D73" s="289"/>
+      <c r="E73" s="290"/>
+      <c r="F73" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="144" t="s">
+      <c r="G73" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="H72" s="144" t="s">
+      <c r="H73" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="I72" s="144" t="s">
+      <c r="I73" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="J72" s="144" t="s">
+      <c r="J73" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="K72" s="144" t="s">
+      <c r="K73" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="L72" s="144" t="s">
+      <c r="L73" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-    </row>
-    <row r="73" spans="1:15" ht="20" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="J73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="K73" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="L73" s="79"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
     </row>
     <row r="74" spans="1:15" ht="20" customHeight="1">
       <c r="A74" s="66"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="94"/>
+      <c r="B74" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
       <c r="E74" s="92"/>
-      <c r="F74" s="78" t="s">
-        <v>177</v>
+      <c r="F74" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="G74" s="80" t="s">
         <v>128</v>
       </c>
       <c r="H74" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="I74" s="80">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="I74" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="J74" s="80" t="s">
         <v>128</v>
       </c>
       <c r="K74" s="80" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L74" s="79"/>
       <c r="M74" s="66"/>
@@ -41908,16 +41971,16 @@
     <row r="75" spans="1:15" ht="20" customHeight="1">
       <c r="A75" s="66"/>
       <c r="B75" s="90"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="296" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="284"/>
+      <c r="C75" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="92"/>
       <c r="F75" s="78" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G75" s="80" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H75" s="80" t="s">
         <v>176</v>
@@ -41931,9 +41994,7 @@
       <c r="K75" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="L75" s="137" t="s">
-        <v>207</v>
-      </c>
+      <c r="L75" s="79"/>
       <c r="M75" s="66"/>
       <c r="N75" s="66"/>
       <c r="O75" s="66"/>
@@ -41943,14 +42004,14 @@
       <c r="B76" s="90"/>
       <c r="C76" s="95"/>
       <c r="D76" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="297"/>
-      <c r="F76" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="G76" s="136" t="s">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="E76" s="284"/>
+      <c r="F76" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="80" t="s">
+        <v>124</v>
       </c>
       <c r="H76" s="80" t="s">
         <v>176</v>
@@ -41958,14 +42019,14 @@
       <c r="I76" s="80">
         <v>1</v>
       </c>
-      <c r="J76" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="K76" s="136" t="s">
-        <v>123</v>
+      <c r="J76" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="80" t="s">
+        <v>136</v>
       </c>
       <c r="L76" s="137" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M76" s="66"/>
       <c r="N76" s="66"/>
@@ -41975,15 +42036,15 @@
       <c r="A77" s="66"/>
       <c r="B77" s="90"/>
       <c r="C77" s="95"/>
-      <c r="D77" s="298" t="s">
-        <v>210</v>
+      <c r="D77" s="296" t="s">
+        <v>0</v>
       </c>
       <c r="E77" s="297"/>
       <c r="F77" s="135" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G77" s="136" t="s">
-        <v>452</v>
+        <v>160</v>
       </c>
       <c r="H77" s="80" t="s">
         <v>176</v>
@@ -41991,14 +42052,14 @@
       <c r="I77" s="80">
         <v>1</v>
       </c>
-      <c r="J77" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="K77" s="80" t="s">
-        <v>136</v>
+      <c r="J77" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="K77" s="136" t="s">
+        <v>123</v>
       </c>
       <c r="L77" s="137" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M77" s="66"/>
       <c r="N77" s="66"/>
@@ -42007,16 +42068,16 @@
     <row r="78" spans="1:15" ht="20" customHeight="1">
       <c r="A78" s="66"/>
       <c r="B78" s="90"/>
-      <c r="C78" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="94"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G78" s="80" t="s">
-        <v>128</v>
+      <c r="C78" s="95"/>
+      <c r="D78" s="298" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="297"/>
+      <c r="F78" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="G78" s="136" t="s">
+        <v>452</v>
       </c>
       <c r="H78" s="80" t="s">
         <v>176</v>
@@ -42030,23 +42091,39 @@
       <c r="K78" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="L78" s="79"/>
+      <c r="L78" s="137" t="s">
+        <v>211</v>
+      </c>
       <c r="M78" s="66"/>
       <c r="N78" s="66"/>
       <c r="O78" s="66"/>
     </row>
     <row r="79" spans="1:15" ht="20" customHeight="1">
       <c r="A79" s="66"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="283"/>
-      <c r="E79" s="284"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" s="94"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79" s="80">
+        <v>1</v>
+      </c>
+      <c r="J79" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="80" t="s">
+        <v>136</v>
+      </c>
       <c r="L79" s="79"/>
       <c r="M79" s="66"/>
       <c r="N79" s="66"/>
@@ -42054,43 +42131,43 @@
     </row>
     <row r="80" spans="1:15" ht="20" customHeight="1">
       <c r="A80" s="66"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="98"/>
-      <c r="L80" s="82"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="283"/>
+      <c r="E80" s="284"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="79"/>
       <c r="M80" s="66"/>
       <c r="N80" s="66"/>
       <c r="O80" s="66"/>
     </row>
     <row r="81" spans="1:15" ht="20" customHeight="1">
       <c r="A81" s="66"/>
-      <c r="B81" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="82"/>
       <c r="M81" s="66"/>
       <c r="N81" s="66"/>
       <c r="O81" s="66"/>
     </row>
     <row r="82" spans="1:15" ht="20" customHeight="1">
       <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
+      <c r="B82" s="74" t="s">
+        <v>194</v>
+      </c>
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
       <c r="E82" s="66"/>
@@ -42412,43 +42489,61 @@
       <c r="O100" s="66"/>
     </row>
     <row r="101" spans="1:15" ht="20" customHeight="1">
-      <c r="A101" s="99"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
-      <c r="O101" s="99"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
+      <c r="L101" s="66"/>
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="66"/>
+    </row>
+    <row r="102" spans="1:15" ht="20" customHeight="1">
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="99"/>
+      <c r="K102" s="99"/>
+      <c r="L102" s="99"/>
+      <c r="M102" s="99"/>
+      <c r="N102" s="99"/>
+      <c r="O102" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C37:D37"/>
+  <mergeCells count="33">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -42458,10 +42553,10 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -42482,8 +42577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -54990,7 +55085,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
